--- a/Data Files/polizas.xlsx
+++ b/Data Files/polizas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="1323">
   <si>
     <t>numPoliza</t>
   </si>
@@ -40184,6 +40184,4813 @@
         "CardMonth": "12",
         "CardNumber": "123",
         "CardYear": "27"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701514</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lHp/pC9mJXOzwGKxSIQ_eKiFs8eC9piE9WDMvaFA2YTl7ck</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CAFA740131MMCSLN04",
+        "FirstName": "MARIA ANGELICA",
+        "LastName": "CASTILLO FLORIN",
+        "RFC": "CAFA740131EB1",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1974-01-31"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "546",
+            "InternalNumber": "0",
+            "City": "Benito Juárez",
+            "Country": "México",
+            "State": "Ciudad de México",
+            "Town": "Del Valle Centro",
+            "PostalCode": "03100"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Calle 3",
+                "ExternalNumber": "546",
+                "InternalNumber": "0",
+                "City": "Benito Juárez",
+                "Country": "México",
+                "State": "Ciudad de México",
+                "Town": "Del Valle Centro",
+                "PostalCode": "03100"
+            },
+            "Value": "4000000",
+            "ContentsInsuredAmount": "40",
+            "Levels": "3",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "false"
+        },
+        "ContentsInformation": {
+            "Value": "4000000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_PROPIO_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 9264.13,
+            "total": 11094.39,
+            "taxAmount": 1530.26,
+            "priceWithExpense": 9564.13,
+            "expense": 300.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 12352.17
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01E",
+                "price": 5352.88,
+                "insuredAmount": 8000000.0,
+                "name": "TEEV-EDIFICIO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02E",
+                "price": 60.32,
+                "insuredAmount": 800000.0,
+                "name": "TEEV-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01E",
+                "price": 1010.4,
+                "insuredAmount": 8000000.0,
+                "name": "RHMT-EDIFICIO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02E",
+                "price": 60.32,
+                "insuredAmount": 800000.0,
+                "name": "RHMT-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005E",
+                "price": 301.8,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013E",
+                "price": 60.32,
+                "insuredAmount": 800000.0,
+                "name": "INCE-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001E",
+                "price": 362.16,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003E",
+                "price": 181.08,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004E",
+                "price": 181.08,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002E",
+                "price": 181.08,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011E",
+                "price": 36.0,
+                "insuredAmount": 360000.0,
+                "name": "INCE-EDIFICIO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "TE01C",
+                "price": 535.3,
+                "insuredAmount": 1600000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 202.08,
+                "insuredAmount": 1600000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 60.36,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 72.43,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 7.2,
+                "insuredAmount": 72000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-PROPIO-FAMILIAR"
+            },
+            {
+                "code": "I099E",
+                "price": null,
+                "insuredAmount": 400.0,
+                "name": "GASTOS EXTRAORDINARIOS"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-PROPIO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-PROPIO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-PROPIO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "72",
+        "CardCVV": "123",
+        "FirstName": "MARIA ANGELICA",
+        "LastName": "CASTILLO FLORIN",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 12352.17,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123465",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>1701515</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lJR/sYEqdqDhGnrA48o3APWZ_bUH81OrO1pqp.Z_chqLYHs</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CAEG730419MMCMSL07",
+        "FirstName": "GLORIA",
+        "LastName": "CAMBEROS ESCARTIN",
+        "RFC": "CAEG7304196U3",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1984-08-11"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "546",
+            "InternalNumber": "0",
+            "City": "Benito Juárez",
+            "Country": "México",
+            "State": "Ciudad de México",
+            "Town": "Del Valle Centro",
+            "PostalCode": "03100"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Calle 3",
+                "ExternalNumber": "546",
+                "InternalNumber": "0",
+                "City": "Benito Juárez",
+                "Country": "México",
+                "State": "Ciudad de México",
+                "Town": "Del Valle Centro",
+                "PostalCode": "03100"
+            },
+            "Value": "4000000",
+            "ContentsInsuredAmount": "40",
+            "Levels": "3",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "false"
+        },
+        "ContentsInformation": {
+            "Value": "4000000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_RENTADO_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 1489.59,
+            "total": 2075.92,
+            "taxAmount": 286.33,
+            "priceWithExpense": 1789.59,
+            "expense": 300.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 172.99
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01C",
+                "price": 535.3,
+                "insuredAmount": 1600000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 202.08,
+                "insuredAmount": 1600000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 60.36,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 72.43,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 7.2,
+                "insuredAmount": 72000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-FAMILIAR"
+            },
+            {
+                "code": "RCF2",
+                "price": 12.9,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-ARRENDATARIO"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-RENTADO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-RENTADO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-RENTADO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "72",
+        "CardCVV": "123",
+        "FirstName": "GLORIA",
+        "LastName": "CAMBEROS ESCARTIN",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 172.99,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123465",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701516</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lL3/_92yuF3aKeEhch2XV9ofDxp_BOQ.P3AUz5UE8UtoIWA</t>
+  </si>
+  <si>
+    <t>1701517</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lMf/z6cI86QKJx0L7R8RWBXQcoJ0g6SSv0PSyTGsFidUZdk</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "RORD930720MGRBDN04",
+        "FirstName": "DENISSE",
+        "LastName": "ROBLES RODRIGUEZ",
+        "RFC": "RORD930720QY9",
+        "PhoneNumber": "5570662434",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1993-07-20"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "ABASOLO",
+            "ExternalNumber": "219",
+            "InternalNumber": "5",
+            "City": "NEZAHUALCÓYOTL",
+            "Country": "MEXICO",
+            "State": "ESTADO DE MÉXICO",
+            "Town": "JUÁREZ PANTITLÁN",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "ABASOLO",
+                "ExternalNumber": "219",
+                "InternalNumber": "5",
+                "City": "NEZAHUALCÓYOTL",
+                "Country": "MEXICO",
+                "State": "ESTADO DE MÉXICO",
+                "Town": "JUÁREZ PANTITLÁN",
+                "PostalCode": "57460"
+            },
+            "Value": "6000000",
+            "ContentsInsuredAmount": "20",
+            "Levels": "2",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "true"
+        },
+        "ContentsInformation": {
+            "Value": "6000000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_RENTADO_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 4300.66,
+            "total": 5336.77,
+            "taxAmount": 736.11,
+            "priceWithExpense": 4600.66,
+            "expense": 300.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 5336.77
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01C",
+                "price": 2007.36,
+                "insuredAmount": 6000000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 45.24,
+                "insuredAmount": 600000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 757.8,
+                "insuredAmount": 6000000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 45.24,
+                "insuredAmount": 600000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 226.35,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 45.24,
+                "insuredAmount": 600000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 271.62,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 135.81,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 135.81,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 135.81,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 27.0,
+                "insuredAmount": 270000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-FAMILIAR"
+            },
+            {
+                "code": "RCF2",
+                "price": 12.9,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-ARRENDATARIO"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-RENTADO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-RENTADO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-RENTADO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "565",
+        "FirstName": "DENISSE",
+        "LastName": "ROBLES RODRIGUEZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 5336.77,
+        "IsRecurringPayment": "true",
+        "CardMonth": "5",
+        "CardNumber": "1234567891011121",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701518</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "EAJE711007HDFSMR04",
+        "FirstName": "ERNESTO",
+        "LastName": "ESCAMILLA JIMENEZ",
+        "RFC": "EAJE7110074F4",
+        "PhoneNumber": "5570662434",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1973-10-13"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Abasolo",
+            "ExternalNumber": "219",
+            "InternalNumber": "C",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantilán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Abasolo",
+                "ExternalNumber": "219",
+                "InternalNumber": "C",
+                "City": "Nezahualcóyotl",
+                "Country": "México",
+                "State": "Estado de México",
+                "Town": "Juárez Pantilán",
+                "PostalCode": "57460"
+            },
+            "Value": "8000000",
+            "ContentsInsuredAmount": "20",
+            "Levels": "2",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "true"
+        },
+        "ContentsInformation": {
+            "Value": "8000000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_PROPIO_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 9264.13,
+            "total": 11094.39,
+            "taxAmount": 1530.26,
+            "priceWithExpense": 9564.13,
+            "expense": 300.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 12352.17
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01E",
+                "price": 5352.88,
+                "insuredAmount": 8000000.0,
+                "name": "TEEV-EDIFICIO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02E",
+                "price": 60.32,
+                "insuredAmount": 800000.0,
+                "name": "TEEV-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01E",
+                "price": 1010.4,
+                "insuredAmount": 8000000.0,
+                "name": "RHMT-EDIFICIO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02E",
+                "price": 60.32,
+                "insuredAmount": 800000.0,
+                "name": "RHMT-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005E",
+                "price": 301.8,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013E",
+                "price": 60.32,
+                "insuredAmount": 800000.0,
+                "name": "INCE-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001E",
+                "price": 362.16,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003E",
+                "price": 181.08,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004E",
+                "price": 181.08,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002E",
+                "price": 181.08,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011E",
+                "price": 36.0,
+                "insuredAmount": 360000.0,
+                "name": "INCE-EDIFICIO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "TE01C",
+                "price": 535.3,
+                "insuredAmount": 1600000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 202.08,
+                "insuredAmount": 1600000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 60.36,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 72.43,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 7.2,
+                "insuredAmount": 72000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-PROPIO-FAMILIAR"
+            },
+            {
+                "code": "I099E",
+                "price": null,
+                "insuredAmount": 400.0,
+                "name": "GASTOS EXTRAORDINARIOS"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-PROPIO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-PROPIO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-PROPIO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "565",
+        "FirstName": "ERNESTO",
+        "LastName": "ESCAMILLA JIMENEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 12352.17,
+        "IsRecurringPayment": "true",
+        "CardMonth": "5",
+        "CardNumber": "1234346574685785",
+        "CardYear": "29"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701519</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lOH/C60JzIoApDCxV5QZ8YSdhaOPXxFjWxU0BxVT6XjadFA</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "EAJE711007HDFSMR04",
+        "FirstName": "ERNESTO",
+        "LastName": "ESCAMILLA JIMENEZ",
+        "RFC": "EAJE7110074F4",
+        "PhoneNumber": "5512345678",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1973-10-13"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Abasolo",
+            "ExternalNumber": "219",
+            "InternalNumber": "C",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantilán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Abasolo",
+                "ExternalNumber": "219",
+                "InternalNumber": "C",
+                "City": "Nezahualcóyotl",
+                "Country": "México",
+                "State": "Estado de México",
+                "Town": "Juárez Pantilán",
+                "PostalCode": "57460"
+            },
+            "Value": "9000000",
+            "ContentsInsuredAmount": "20",
+            "Levels": "2",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "true"
+        },
+        "ContentsInformation": {
+            "Value": "9000000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_RENTADO_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 1489.59,
+            "total": 2075.92,
+            "taxAmount": 286.33,
+            "priceWithExpense": 1789.59,
+            "expense": 300.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 172.99
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01C",
+                "price": 535.3,
+                "insuredAmount": 1600000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 202.08,
+                "insuredAmount": 1600000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 60.36,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 72.43,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 7.2,
+                "insuredAmount": 72000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-FAMILIAR"
+            },
+            {
+                "code": "RCF2",
+                "price": 12.9,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-ARRENDATARIO"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-RENTADO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-RENTADO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-RENTADO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "565",
+        "FirstName": "ERNESTO",
+        "LastName": "ESCAMILLA JIMENEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 172.99,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234346574685785",
+        "CardYear": "29"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701520</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lPt/eHuXhWelxgc7oMopVKLrjHFNMeUyfI21WuBCqw1QLls</t>
+  </si>
+  <si>
+    <t>1701521</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lRV/kFLEE62Y9Mk24f0pefsrbg8WSrIt0BBwrzpgYczPZxk</t>
+  </si>
+  <si>
+    <t>1701522</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lT7/h1_LMRM055nMPuQ6oAI6hEm_SyT0hkGQBk0gt8lNjG8</t>
+  </si>
+  <si>
+    <t>1701523</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lUj/U3meEneqjs5eeRikPayHct6YhS98HkLXrrImOkx0XAk</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROBL891202MGTMLL04",
+        "FirstName": "LILIANA",
+        "LastName": "ROMERO BLANCARTE",
+        "RFC": "ROBL891202T25",
+        "PhoneNumber": "5570662438",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1989-12-02"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Juárez",
+            "ExternalNumber": "239",
+            "InternalNumber": "B",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantilán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Juárez",
+                "ExternalNumber": "239",
+                "InternalNumber": "B",
+                "City": "Nezahualcóyotl",
+                "Country": "México",
+                "State": "Estado de México",
+                "Town": "Juárez Pantilán",
+                "PostalCode": "57460"
+            },
+            "Value": "6000000",
+            "ContentsInsuredAmount": "20",
+            "Levels": "2",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "true"
+        },
+        "ContentsInformation": {
+            "Value": "6000000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_PROPIO_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 7061.71,
+            "total": 8539.58,
+            "taxAmount": 1177.87,
+            "priceWithExpense": 7361.71,
+            "expense": 300.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 9415.61
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01E",
+                "price": 4014.66,
+                "insuredAmount": 6000000.0,
+                "name": "TEEV-EDIFICIO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02E",
+                "price": 45.24,
+                "insuredAmount": 600000.0,
+                "name": "TEEV-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01E",
+                "price": 757.8,
+                "insuredAmount": 6000000.0,
+                "name": "RHMT-EDIFICIO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02E",
+                "price": 45.24,
+                "insuredAmount": 600000.0,
+                "name": "RHMT-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005E",
+                "price": 226.35,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-EDIFICIO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013E",
+                "price": 45.24,
+                "insuredAmount": 600000.0,
+                "name": "INCE-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001E",
+                "price": 271.62,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-EDIFICIO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003E",
+                "price": 135.81,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-EDIFICIO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004E",
+                "price": 135.81,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-EDIFICIO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002E",
+                "price": 135.81,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-EDIFICIO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011E",
+                "price": 27.0,
+                "insuredAmount": 270000.0,
+                "name": "INCE-EDIFICIO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "TE01C",
+                "price": 401.47,
+                "insuredAmount": 1200000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 9.05,
+                "insuredAmount": 120000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 151.56,
+                "insuredAmount": 1200000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 9.05,
+                "insuredAmount": 120000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 45.27,
+                "insuredAmount": 1200000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 9.05,
+                "insuredAmount": 120000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 54.32,
+                "insuredAmount": 1200000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 27.16,
+                "insuredAmount": 1200000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 27.16,
+                "insuredAmount": 1200000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 27.16,
+                "insuredAmount": 1200000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 5.4,
+                "insuredAmount": 54000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-PROPIO-FAMILIAR"
+            },
+            {
+                "code": "I099E",
+                "price": null,
+                "insuredAmount": 400.0,
+                "name": "GASTOS EXTRAORDINARIOS"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-PROPIO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-PROPIO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-PROPIO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "565",
+        "FirstName": "LILIANA",
+        "LastName": "ROMERO BLANCARTE",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 9415.61,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234346574685785",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701524</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lWL/UymM3LksKM.whSrLOEEjsUhaqu_oYEfHmuitAv7nTYM</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROBL891202MGTMLL04",
+        "FirstName": "LILIANA",
+        "LastName": "ROMERO BLANCARTE",
+        "RFC": "ROBL891202T25",
+        "PhoneNumber": "5570662438",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1989-12-02"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Juárez",
+            "ExternalNumber": "239",
+            "InternalNumber": "B",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantilán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Juárez",
+                "ExternalNumber": "239",
+                "InternalNumber": "B",
+                "City": "Nezahualcóyotl",
+                "Country": "México",
+                "State": "Estado de México",
+                "Town": "Juárez Pantilán",
+                "PostalCode": "57460"
+            },
+            "Value": "1400000",
+            "ContentsInsuredAmount": "20",
+            "Levels": "2",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "true"
+        },
+        "ContentsInformation": {
+            "Value": "1400000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_RENTADO_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 1361.83,
+            "total": 1927.72,
+            "taxAmount": 265.89,
+            "priceWithExpense": 1661.83,
+            "expense": 300.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1927.72
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01C",
+                "price": 468.38,
+                "insuredAmount": 1400000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 10.56,
+                "insuredAmount": 140000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 176.82,
+                "insuredAmount": 1400000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 10.56,
+                "insuredAmount": 140000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 52.82,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 10.56,
+                "insuredAmount": 140000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 63.38,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 31.69,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 31.69,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 31.69,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 6.3,
+                "insuredAmount": 63000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-FAMILIAR"
+            },
+            {
+                "code": "RCF2",
+                "price": 12.9,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-ARRENDATARIO"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-RENTADO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-RENTADO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-RENTADO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "565",
+        "FirstName": "LILIANA",
+        "LastName": "ROMERO BLANCARTE",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 1927.72,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234346574685785",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701525</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lXx/WwZiLUhYF7N6Q9qEJV_k8.34FyFVHS7gw4vYLgKhKac</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lZZ/fHnamgbS.UHCm4I0oOxTSu3z7AyxrmjKbD2a6IPRsvs</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lbB/I_iDdSLZQBpT0vYBrXmaQE1RFhS82XGzNfMWdIgnBk4</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "EAJE711007HDFSMR04",
+        "FirstName": "ERNESTO",
+        "LastName": "ESCAMILLA JIMENEZ",
+        "RFC": "EAJE7110074F4",
+        "PhoneNumber": "5570662434",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1973-10-13"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Abasolo",
+            "ExternalNumber": "219",
+            "InternalNumber": "C",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantilán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Abasolo",
+                "ExternalNumber": "219",
+                "InternalNumber": "C",
+                "City": "Nezahualcóyotl",
+                "Country": "México",
+                "State": "Estado de México",
+                "Town": "Juárez Pantilán",
+                "PostalCode": "57460"
+            },
+            "Value": "1400000",
+            "ContentsInsuredAmount": "20",
+            "Levels": "2",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "true"
+        },
+        "ContentsInformation": {
+            "Value": "1400000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_RENTADO_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 1361.83,
+            "total": 1927.72,
+            "taxAmount": 265.89,
+            "priceWithExpense": 1661.83,
+            "expense": 300.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 160.64
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01C",
+                "price": 468.38,
+                "insuredAmount": 1400000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 10.56,
+                "insuredAmount": 140000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 176.82,
+                "insuredAmount": 1400000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 10.56,
+                "insuredAmount": 140000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 52.82,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 10.56,
+                "insuredAmount": 140000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 63.38,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 31.69,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 31.69,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 31.69,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 6.3,
+                "insuredAmount": 63000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-FAMILIAR"
+            },
+            {
+                "code": "RCF2",
+                "price": 12.9,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-ARRENDATARIO"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-RENTADO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-RENTADO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-RENTADO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "565",
+        "FirstName": "ERNESTO",
+        "LastName": "ESCAMILLA JIMENEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 160.64,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234346574685785",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702220</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001leP/3cVTol1Qasvi7JhzWE4t9Epf87AFBLyrojsStWV0Ay4</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CAEM671028HDFMSR04",
+        "FirstName": "MARTIN",
+        "LastName": "CAMACHO ESPINOZA",
+        "RFC": "CAEM671028498",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "false",
+        "Driver": {
+            "FirstName": "pepe",
+            "LastName": "mendoza victoria",
+            "PhoneNumber": "5618988021",
+            "Email": "pep@gmail.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "12345665437894563",
+            "EngineNumber": "47561313133313288",
+            "NumberPlate": "DBG123",
+            "Brand": "MZ",
+            "Year": "2010",
+            "Model": "004",
+            "ModelDesc": "MZ036",
+            "Type": "001",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "A06",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 1392.7,
+            "total": 2079.53,
+            "taxAmount": 286.83,
+            "priceWithExpense": 1792.7,
+            "expense": 400.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 173.29,
+            "PorcRecaDctoVol": 45.0,
+            "PorcRecaDctoEarnix": 45.0,
+            "MtoRecaDctoEarnix": 1139.47,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 1041.29,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 40.65,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 203.5,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 107.26,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "MARTIN",
+        "LastName": "CAMACHO ESPINOZA",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 173.29,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123123",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702221</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lg1/nJln0TPwhLG2KzQkrdYgo8cEZtF6wJBY6.suG7yNqPg</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "SALP000331MCLLPLA2",
+        "FirstName": "PAULA GUADALUPE",
+        "LastName": "SALINAS LOPEZ",
+        "RFC": "SALP000331653",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "12345665437894563",
+            "EngineNumber": "47561313133313266",
+            "NumberPlate": "DBG852",
+            "Brand": "MZ",
+            "Year": "2014",
+            "Model": "004",
+            "ModelDesc": "MZ012",
+            "Type": "001",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "A05",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 3590.22,
+            "total": 4744.66,
+            "taxAmount": 654.44,
+            "priceWithExpense": 4090.22,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 395.39,
+            "PorcRecaDctoVol": 45.0,
+            "PorcRecaDctoEarnix": 40.1,
+            "MtoRecaDctoEarnix": 2403.77,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "316966.0",
+                "code": "A004",
+                "price": 1545.26,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 1041.29,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 40.65,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "17911.85",
+                "code": "A017",
+                "price": 490.8,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A014",
+                "price": 161.46,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 203.5,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 107.26,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "PAULA GUADALUPE",
+        "LastName": "SALINAS LOPEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 395.39,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123456",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702224</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lkr/resMtNS8Cq0RKx24wt6cMBKxX8RjTdovI.qX3z5gpSM</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CAEM730130HMCRNR04",
+        "FirstName": "MARCOS",
+        "LastName": "CARRILLO ENDOQUI",
+        "RFC": "CAEM730130AC2",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "12345665478945612",
+            "EngineNumber": "12345665478945689",
+            "NumberPlate": "DBG956",
+            "Brand": "BA",
+            "Year": "2022",
+            "Model": "011",
+            "ModelDesc": "BA902",
+            "Type": "002",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "B03",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 16062.09,
+            "total": 19212.02,
+            "taxAmount": 2649.93,
+            "priceWithExpense": 16562.09,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1601.0,
+            "PorcRecaDctoVol": 40.0,
+            "PorcRecaDctoEarnix": 36.41,
+            "MtoRecaDctoEarnix": 9197.98,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "75000.0",
+                "code": "A002",
+                "price": 0.0,
+                "PorcDed": "20.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "413910.0",
+                "code": "A004",
+                "price": 6487.27,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 1233.53,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 82.61,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "23908.46",
+                "code": "A017",
+                "price": 948.41,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "15412.85",
+                "code": "A016",
+                "price": 839.7,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "413910.0",
+                "code": "A001",
+                "price": 5727.77,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "12000.0",
+                "code": "A014",
+                "price": 312.0,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A015",
+                "price": 165.0,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 222.0,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 43.8,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "MARCOS",
+        "LastName": "CARRILLO ENDOQUI",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 1601.0,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123745",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702225</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lmT/GRCroT8dJ.dsIshiN9sZfawhzodIwE3ToTZkQa9IwR8</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "SALP590927HOCLPD02",
+        "FirstName": "PEDRO ANTONIO",
+        "LastName": "SALINAS LOPEZ",
+        "RFC": "SALP590927M45",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "78564565478945612",
+            "EngineNumber": "78564565478945678",
+            "NumberPlate": "RMV261",
+            "Brand": "VM",
+            "Year": "2017",
+            "Model": "001",
+            "ModelDesc": "VMAD0",
+            "Type": "017",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "I01",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 5747.25,
+            "total": 7246.81,
+            "taxAmount": 999.56,
+            "priceWithExpense": 6247.25,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 603.9,
+            "PorcRecaDctoVol": 25.0,
+            "PorcRecaDctoEarnix": 25.0,
+            "MtoRecaDctoEarnix": 1915.74,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "75000.0",
+                "code": "A002",
+                "price": 0.0,
+                "PorcDed": "20.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "152000.0",
+                "code": "A004",
+                "price": 408.96,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 927.12,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "100000.0",
+                "code": "A006",
+                "price": 455.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "152000.0",
+                "code": "A001",
+                "price": 3651.51,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 110.89,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 193.5,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "PEDRO ANTONIO",
+        "LastName": "SALINAS LOPEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 603.9,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123789",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702227</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lph/OCFt1aX2wV1cnK38dx8Qxj_W5VCJ57gz1CoI1b0wnpA</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CAFA740131MMCSLN04",
+        "FirstName": "MARIA ANGELICA",
+        "LastName": "CASTILLO FLORIN",
+        "RFC": "CAFA740131EB1",
+        "PhoneNumber": "5570662434",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "false",
+        "Driver": {
+            "FirstName": "pedro",
+            "LastName": "infante infante",
+            "PhoneNumber": "5514521442",
+            "Email": "pedro@gmail.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Felipe Ángeles",
+            "ExternalNumber": "219",
+            "InternalNumber": "",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "JM3TB28V390101251",
+            "EngineNumber": "12345678910111278",
+            "NumberPlate": "RMV261",
+            "Brand": "LE",
+            "Year": "2023",
+            "Model": "005",
+            "ModelDesc": "LE013",
+            "Type": "001",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "A03",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 12689.37,
+            "total": 15299.67,
+            "taxAmount": 2110.3,
+            "priceWithExpense": 13189.37,
+            "expense": 500.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 15299.67,
+            "PorcRecaDctoVol": 45.0,
+            "PorcRecaDctoEarnix": 41.14,
+            "MtoRecaDctoEarnix": 8870.99,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "75000.0",
+                "code": "A002",
+                "price": 0.0,
+                "PorcDed": "20.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "781107.0",
+                "code": "A004",
+                "price": 3809.65,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 495.37,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 46.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "41080.56",
+                "code": "A017",
+                "price": 741.78,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "25198.05",
+                "code": "A016",
+                "price": 611.6,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "781107.0",
+                "code": "A001",
+                "price": 6277.23,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "12000.0",
+                "code": "A014",
+                "price": 322.92,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A015",
+                "price": 170.77,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 142.45,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 71.33,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "MARIA ANGELICA",
+        "LastName": "CASTILLO FLORIN",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 15299.67,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "123",
+        "CardYear": "27"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702230</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001luX/ByaEoWIJ6Fim82kJrIkQ2I83wTUpYo2rRC33dDkDvXk</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROSA850204HDFBLR02",
+        "FirstName": "ARTURO",
+        "LastName": "ROBLES SALDANA",
+        "RFC": "ROSA8502044W8",
+        "PhoneNumber": "5583270816",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Felipe Ángeles",
+            "ExternalNumber": "220",
+            "InternalNumber": "",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "1HGCP2F32BA127286",
+            "EngineNumber": "12345678910111289",
+            "NumberPlate": "RMV261",
+            "Brand": "VM",
+            "Year": "2004",
+            "Model": "065",
+            "ModelDesc": "VMK13",
+            "Type": "017",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "I04",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 1686.78,
+            "total": 2420.66,
+            "taxAmount": 333.88,
+            "priceWithExpense": 2086.78,
+            "expense": 400.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 201.72,
+            "PorcRecaDctoVol": 25.0,
+            "PorcRecaDctoEarnix": 25.0,
+            "MtoRecaDctoEarnix": 562.26,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 927.12,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "100000.0",
+                "code": "A006",
+                "price": 455.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 110.89,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 193.5,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "123",
+        "FirstName": "ARTURO",
+        "LastName": "ROBLES SALDANA",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 201.72,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "123",
+        "CardYear": "28"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702231</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lw9/lWl6vJG5lWoNGZUJMBGb7fklbDdPoCVHdQRLTxgMQH4</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROGB620512MDFXTR06",
+        "FirstName": "BERTHA",
+        "LastName": "ROA GUTIERREZ",
+        "RFC": "ROGB620512BR3",
+        "PhoneNumber": "5583270817",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Abasolo",
+            "ExternalNumber": "239",
+            "InternalNumber": "3",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "HJ345I78910111213",
+            "EngineNumber": "12345678910111222",
+            "NumberPlate": "YTR261",
+            "Brand": "FO",
+            "Year": "2023",
+            "Model": "025",
+            "ModelDesc": "FOC69",
+            "Type": "002",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "B05",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 14633.82,
+            "total": 17555.23,
+            "taxAmount": 2421.41,
+            "priceWithExpense": 15133.82,
+            "expense": 500.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 17555.23,
+            "PorcRecaDctoVol": 40.0,
+            "PorcRecaDctoEarnix": 38.13,
+            "MtoRecaDctoEarnix": 9019.58,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "822483.0",
+                "code": "A004",
+                "price": 12669.68,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 542.7,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 121.98,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "43685.65",
+                "code": "A017",
+                "price": 948.41,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A014",
+                "price": 156.0,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 72.61,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 122.44,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "BERTHA",
+        "LastName": "ROA GUTIERREZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 17555.23,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "123",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702232</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001lxl/jCTAlLirkLvR5rn.uiB7x5vcRsPRgi2rXDPUuhuBkH4</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "RORM750920MQTXMR04",
+        "FirstName": "MARISA",
+        "LastName": "ROA RAMIREZ",
+        "RFC": "RORM750920HT4",
+        "PhoneNumber": "5570662439",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "false",
+        "Driver": {
+            "FirstName": "luis",
+            "LastName": "pérez pérez",
+            "PhoneNumber": "5214121012",
+            "Email": "luis@gmail.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "JUÁREZ",
+            "ExternalNumber": "249",
+            "InternalNumber": "A",
+            "City": "NEZAHUALCÓYOTL",
+            "Country": "MEXICO",
+            "State": "ESTADO DE MÉXICO",
+            "Town": "JUÁREZ PANTITLÁN",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "RTJ45678910111213",
+            "EngineNumber": "12345678910111233",
+            "NumberPlate": "YTR261",
+            "Brand": "FO",
+            "Year": "2010",
+            "Model": "025",
+            "ModelDesc": "FO718",
+            "Type": "002",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "B06",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 859.73,
+            "total": 1461.29,
+            "taxAmount": 201.56,
+            "priceWithExpense": 1259.73,
+            "expense": 400.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1461.29,
+            "PorcRecaDctoVol": 40.0,
+            "PorcRecaDctoEarnix": 40.0,
+            "MtoRecaDctoEarnix": 573.13,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 542.7,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 121.98,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 72.61,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 122.44,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "MARISA",
+        "LastName": "ROA RAMIREZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 1461.29,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "321",
+        "CardYear": "27"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702234</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001m0z/3dLH6oU9DYjScWU2g.KrzzIXcNq3H39AdEt86sIbELA</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROVA640424MCHCLL04",
+        "FirstName": "MARIA ALEJANDRA",
+        "LastName": "ROACHO VILLA",
+        "RFC": "ROVA640424T19",
+        "PhoneNumber": "5583270814",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Felipe Ángeles",
+            "ExternalNumber": "219",
+            "InternalNumber": "",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "GT6Y5678910111213",
+            "EngineNumber": "12345678910111244",
+            "NumberPlate": "YTR261",
+            "Brand": "VM",
+            "Year": "2004",
+            "Model": "065",
+            "ModelDesc": "VMK13",
+            "Type": "017",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "I03",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 1928.47,
+            "total": 2817.03,
+            "taxAmount": 388.56,
+            "priceWithExpense": 2428.47,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 234.75,
+            "PorcRecaDctoVol": 25.0,
+            "PorcRecaDctoEarnix": 25.0,
+            "MtoRecaDctoEarnix": 642.82,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "89830.0",
+                "code": "A004",
+                "price": 241.69,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 927.12,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "100000.0",
+                "code": "A006",
+                "price": 455.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 110.89,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 193.5,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "321",
+        "FirstName": "MARIA ALEJANDRA",
+        "LastName": "ROACHO VILLA",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 234.75,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "321",
+        "CardYear": "27"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702236</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001m4D/iRVJGbxnFP.UtDSNBkmY6GZcjRpHtCX0wx68Gh_409E</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROSJ690516HCCBNN04",
+        "FirstName": "JUAN DE JESUS",
+        "LastName": "ROBALDINO SANCHEZ",
+        "RFC": "ROSJ690516650",
+        "PhoneNumber": "5583270814",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "false",
+        "Driver": {
+            "FirstName": "luis",
+            "LastName": "pérez pérez",
+            "PhoneNumber": "5214121012",
+            "Email": "luis@gmail.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Felipe Ángeles",
+            "ExternalNumber": "219",
+            "InternalNumber": "",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "U7Y45678910111213",
+            "EngineNumber": "12345678910111289",
+            "NumberPlate": "YTR261",
+            "Brand": "HM",
+            "Year": "2006",
+            "Model": "002",
+            "ModelDesc": "HM003",
+            "Type": "001",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "A05",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 3032.59,
+            "total": 4097.8,
+            "taxAmount": 565.21,
+            "priceWithExpense": 3532.59,
+            "expense": 500.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 4097.8,
+            "PorcRecaDctoVol": 45.0,
+            "PorcRecaDctoEarnix": 33.77,
+            "MtoRecaDctoEarnix": 1545.98,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "360220.0",
+                "code": "A004",
+                "price": 1134.1,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 495.37,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 46.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "20515.86",
+                "code": "A017",
+                "price": 981.61,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A014",
+                "price": 161.46,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 142.45,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 71.33,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "123",
+        "FirstName": "JUAN DE JESUS",
+        "LastName": "ROBALDINO SANCHEZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 4097.8,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "123",
+        "CardYear": "27"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701997</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001mFV/0yHCitTjKPe0.JqyqUuffo4QsngTyvuxKYorRM4L_wo</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "RXBE840506MDFSRR01",
+        "FirstName": "ERIKA PAOLA",
+        "LastName": "ROSAS BRAVO",
+        "RFC": "ROBE840506H93",
+        "PhoneNumber": "5519875874",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1984-05-06"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Chapultepec",
+            "ExternalNumber": "300",
+            "InternalNumber": "2",
+            "City": "Álvaro Obregon",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "8 de Agosto",
+            "PostalCode": "01180"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1998-04-19",
+                "FirstName": "Francisco",
+                "email": "francisco12@gmail.com",
+                "KinshipExternalCode": "0003",
+                "LastName": "Hernández García",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "MARIO",
+                    "ExternalNumber": "12-D",
+                    "InternalNumber": "11-c",
+                    "City": "CIUDAD DE MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "IZTAPALAPA",
+                    "PostalCode": "09690"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF3_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 26089.8,
+            "total": 26089.8,
+            "taxAmount": 0,
+            "priceWithExpense": 26089.8,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 26089.8
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 750.0,
+                "insuredAmount": 1500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 1299.0,
+                "insuredAmount": 150000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 4111.8,
+                "insuredAmount": 7500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 5775.0,
+                "insuredAmount": 1500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 12195.0,
+                "insuredAmount": 1500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1959.0,
+                "insuredAmount": 300000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "ERIKA PAOLA",
+        "LastName": "ROSAS BRAVO",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 26089.8,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234125000",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701999</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001mIj/nDgSF_8aLriRpwWZCVTpYAMf3Na.W0W9VwrDdt1u1D8</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "MERS860813MHGNDC04",
+        "FirstName": "SOCORRO MONSERRAT",
+        "LastName": "MENESES RODRIGUEZ",
+        "RFC": "MERS860813BF9",
+        "PhoneNumber": "5578494525",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1970-04-30"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Insurgentes",
+            "ExternalNumber": "452",
+            "InternalNumber": "A-8",
+            "City": "San Nicolás de los Garza",
+            "Country": "México",
+            "State": "Nuevo León",
+            "Town": "El Agarron",
+            "PostalCode": "66488"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1988-08-11",
+                "FirstName": "Mateo",
+                "email": "mateo23@gmail.com",
+                "KinshipExternalCode": "0012",
+                "LastName": "López Pérez",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "Insurgentes",
+                    "ExternalNumber": "452",
+                    "InternalNumber": "A-8",
+                    "City": "San Nicolás de los Garza",
+                    "Country": "México",
+                    "State": "Nuevo León",
+                    "Town": "El Agarron",
+                    "PostalCode": "66488"
+                }
+            },
+            {
+                "BirthDate": "1998-05-14",
+                "FirstName": "Carlos",
+                "email": "carlos@gmail.com",
+                "KinshipExternalCode": "0006",
+                "LastName": "RODRÍGUEZ SÁNCHEZ",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Hidalgo",
+                    "ExternalNumber": "568",
+                    "InternalNumber": "6",
+                    "City": "GUADALAJARA",
+                    "Country": "MEXCO",
+                    "State": "JALISCO",
+                    "Town": "ANALCO",
+                    "PostalCode": "44450"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 724.72
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "014",
+        "CardCVV": "245",
+        "FirstName": "SOCORRO MONSERRAT",
+        "LastName": "MENESES RODRIGUEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 724.72,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234567891011789",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702000</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001mKL/IUlBYB2medOrs.lUk2X2.y1cfHKMErQfAaZGFgh0kQQ</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "AUCE760920MHGSRL05",
+        "FirstName": "ELIZABETH",
+        "LastName": "AUSTRIA CORTES",
+        "RFC": "AUCE760920AW0",
+        "PhoneNumber": "5678951245",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1976-09-20"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "16 de Septiembre",
+            "ExternalNumber": "789",
+            "InternalNumber": "B-8",
+            "City": "Mérida",
+            "Country": "México",
+            "State": "Yucatán",
+            "Town": "Maria Luisa",
+            "PostalCode": "97199"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1999-09-18",
+                "FirstName": "Gabriel",
+                "email": "gabriel@gmail.com",
+                "KinshipExternalCode": "0075",
+                "LastName": "Sánchez López",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "16 de Septiembre",
+                    "ExternalNumber": "789",
+                    "InternalNumber": "B-8",
+                    "City": "Mérida",
+                    "Country": "México",
+                    "State": "Yucatán",
+                    "Town": "Maria Luisa",
+                    "PostalCode": "97199"
+                }
+            },
+            {
+                "BirthDate": "1999-10-26",
+                "FirstName": "Javier",
+                "email": "javier@gmail.com",
+                "KinshipExternalCode": "0011",
+                "LastName": "GONZÁLEZ GARCÍA",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Emiliano Zapata",
+                    "ExternalNumber": "14",
+                    "InternalNumber": "5",
+                    "City": "GUADALAJARA",
+                    "Country": "MEXCO",
+                    "State": "JALISCO",
+                    "Town": "ANALCO",
+                    "PostalCode": "44450"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF2_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 17393.2,
+            "total": 17393.2,
+            "taxAmount": 0,
+            "priceWithExpense": 17393.2,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 17393.2
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 500.0,
+                "insuredAmount": 1000000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 866.0,
+                "insuredAmount": 100000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 2741.2,
+                "insuredAmount": 5000,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 3850.0,
+                "insuredAmount": 1000000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 8130.0,
+                "insuredAmount": 1000000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1306.0,
+                "insuredAmount": 200000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "ELIZABETH",
+        "LastName": "AUSTRIA CORTES",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 17393.2,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011785",
+        "CardYear": "28"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702003</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001mNZ/P8fPp6pq2Vo2Nz3pVgNhNbpCf_4ZlQMno3Nyy_cmi78</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "RXBE840506MDFSRR01",
+        "FirstName": "ERIKA PAOLA",
+        "LastName": "ROSAS BRAVO",
+        "RFC": "ROBE840506H93",
+        "PhoneNumber": "5678975874",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1984-05-06"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Reforma",
+            "ExternalNumber": "456",
+            "InternalNumber": "8",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Mi Retiro",
+            "PostalCode": "57465"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1997-02-12",
+                "FirstName": "Daniel",
+                "email": "daniel@gmail.com",
+                "KinshipExternalCode": "0003",
+                "LastName": "Sánchez Hernández",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "Reforma",
+                    "ExternalNumber": "456",
+                    "InternalNumber": "8",
+                    "City": "Nezahualcóyotl",
+                    "Country": "México",
+                    "State": "México",
+                    "Town": "Mi Retiro",
+                    "PostalCode": "57465"
+                }
+            },
+            {
+                "BirthDate": "1975-05-14",
+                "FirstName": "Santiago",
+                "email": "Santiago@gmail.com",
+                "KinshipExternalCode": "0006",
+                "LastName": "GARCÍA SÁNCHEZ",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Guadalupe",
+                    "ExternalNumber": "74",
+                    "InternalNumber": "2",
+                    "City": "Huaniqueo",
+                    "Country": "México",
+                    "State": "Michoacán de Ocampo",
+                    "Town": "Barrio Alto",
+                    "PostalCode": "58360"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF3_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 26089.8,
+            "total": 26089.8,
+            "taxAmount": 0,
+            "priceWithExpense": 26089.8,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 2174.15
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 750.0,
+                "insuredAmount": 1500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 1299.0,
+                "insuredAmount": 150000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 4111.8,
+                "insuredAmount": 7500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 5775.0,
+                "insuredAmount": 1500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 12195.0,
+                "insuredAmount": 1500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1959.0,
+                "insuredAmount": 300000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "132",
+        "CardCVV": "245",
+        "FirstName": "ERIKA PAOLA",
+        "LastName": "ROSAS BRAVO",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 2174.15,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234125000",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702004</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001m94/.UtW0Z1aR6cyuLc1HKfs8r6W21FdoW_pJBASFntNB6U</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "TOLM720325HDFRPR02",
+        "FirstName": "MARTIN",
+        "LastName": "TORRES LOPEZ",
+        "RFC": "TOLM7203254Z1",
+        "PhoneNumber": "5578494745",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1972-03-25"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "calle 2 ",
+            "ExternalNumber": "15",
+            "InternalNumber": "12",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Evolución Poniente",
+            "PostalCode": "57708"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "2000-06-13",
+                "FirstName": "Emiliano",
+                "email": "emilio@gmail.com",
+                "KinshipExternalCode": "0012",
+                "LastName": "Rodríguez López",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "CIENCIA",
+                    "ExternalNumber": "221",
+                    "InternalNumber": "6-f",
+                    "City": "NEZAHUALCÓYOTL",
+                    "Country": "MEXCO",
+                    "State": "ESTADO DE MÉXICO",
+                    "Town": "JUÁREZ PANTITLÁN",
+                    "PostalCode": "57460"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 8696.6
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "MARTIN",
+        "LastName": "TORRES LOPEZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 8696.6,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234567891011789",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702007</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001mSP/FOq84au_DNRsIglPYHD31bH9PS_xvVi0iGBcWdfzXbg</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "EIGR731112HHGSLN00",
+        "FirstName": "RENE FERMIN",
+        "LastName": "ESPINOSA GUILLEN",
+        "RFC": "EIGR7311127IA",
+        "PhoneNumber": "5674551245",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1973-11-12"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "calle 3",
+            "ExternalNumber": "14",
+            "InternalNumber": "B-9",
+            "City": "Morelia",
+            "Country": "México",
+            "State": "Michoacán de Ocampo",
+            "Town": "Atapaneo",
+            "PostalCode": "58300"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1999-12-15",
+                "FirstName": "GAEL ",
+                "email": "gael@gmail.com",
+                "KinshipExternalCode": "0075",
+                "LastName": "García Martínez",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "19 TARATA CRESCENT",
+                    "ExternalNumber": "12",
+                    "InternalNumber": "1",
+                    "City": "MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "ECATEPEC DE MORELOS",
+                    "PostalCode": "55024"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF2_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 17393.2,
+            "total": 17393.2,
+            "taxAmount": 0,
+            "priceWithExpense": 17393.2,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1449.43
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 500.0,
+                "insuredAmount": 1000000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 866.0,
+                "insuredAmount": 100000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 2741.2,
+                "insuredAmount": 5000,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 3850.0,
+                "insuredAmount": 1000000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 8130.0,
+                "insuredAmount": 1000000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1306.0,
+                "insuredAmount": 200000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "RENE FERMIN",
+        "LastName": "ESPINOSA GUILLEN",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 1449.43,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011785",
+        "CardYear": "30"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702008</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001mU1/G4Zg0YDiFAquWvItkPduEJUc8rVttV93b99sYWKT27E</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "COMS720209MHGRNL07",
+        "FirstName": "SILVIA",
+        "LastName": "CORDOVA MONTERRUBIO",
+        "RFC": "COMS720209BA9",
+        "PhoneNumber": "5519874512",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1972-09-02"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Hidalgo",
+            "ExternalNumber": "66",
+            "InternalNumber": "N-5",
+            "City": "Álvaro Obregon",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "8 de Agosto",
+            "PostalCode": "01180"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1998-04-19",
+                "FirstName": "MIGUEL ",
+                "email": "miguel12@gmail.com",
+                "KinshipExternalCode": "0003",
+                "LastName": "Hernández García",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "MARIO",
+                    "ExternalNumber": "12-D",
+                    "InternalNumber": "11-c",
+                    "City": "CIUDAD DE MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "IZTAPALAPA",
+                    "PostalCode": "09690"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF3_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 26089.8,
+            "total": 26089.8,
+            "taxAmount": 0,
+            "priceWithExpense": 26089.8,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 26089.8
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 750.0,
+                "insuredAmount": 1500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 1299.0,
+                "insuredAmount": 150000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 4111.8,
+                "insuredAmount": 7500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 5775.0,
+                "insuredAmount": 1500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 12195.0,
+                "insuredAmount": 1500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1959.0,
+                "insuredAmount": 300000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "SILVIA",
+        "LastName": "CORDOVA MONTERRUBIO",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 26089.8,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234125000",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702010</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001mXF/K78mJcHDgv7LZrnMCxetbz6wX43SN5hog6peuHVvFqU</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CUJO771209MDFTML05",
+        "FirstName": "OLGA VANESSA",
+        "LastName": "CUATEPOTZO JIMENEZ",
+        "RFC": "CUJO771209714",
+        "PhoneNumber": "5678494525",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1977-12-09"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Morelos",
+            "ExternalNumber": "511",
+            "InternalNumber": "J-5",
+            "City": "San Nicolás de los Garza",
+            "Country": "México",
+            "State": "Nuevo León",
+            "Town": "El Agarron",
+            "PostalCode": "66488"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1988-08-11",
+                "FirstName": "ANGEL",
+                "email": "angel23@gmail.com",
+                "KinshipExternalCode": "0012",
+                "LastName": "López Pérez",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "Insurgentes",
+                    "ExternalNumber": "452",
+                    "InternalNumber": "A-8",
+                    "City": "San Nicolás de los Garza",
+                    "Country": "México",
+                    "State": "Nuevo León",
+                    "Town": "El Agarron",
+                    "PostalCode": "66488"
+                }
+            },
+            {
+                "BirthDate": "1995-08-20",
+                "FirstName": "Matías",
+                "email": "carlos@gmail.com",
+                "KinshipExternalCode": "0006",
+                "LastName": "Sánchez Sánchez",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Lázaro Cárdenas",
+                    "ExternalNumber": "645",
+                    "InternalNumber": "19",
+                    "City": "GUADALAJARA",
+                    "Country": "MEXCO",
+                    "State": "JALISCO",
+                    "Town": "ANALCO",
+                    "PostalCode": "44450"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 724.72
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "014",
+        "CardCVV": "245",
+        "FirstName": "OLGA VANESSA",
+        "LastName": "CUATEPOTZO JIMENEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 724.72,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234567891011789",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702011</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001mYr/EmR8fYo1NgEk0G5KKuDAPzhfSwE1io.vW6WAhvr2lCc</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CULM811225MPLRNR07",
+        "FirstName": "MARLENE",
+        "LastName": "DE LA CRUZ LUNA",
+        "RFC": "CULM811225976",
+        "PhoneNumber": "5674511245",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1981-12-25"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Benito Juárez",
+            "ExternalNumber": "9",
+            "InternalNumber": "452",
+            "City": "Mérida",
+            "Country": "México",
+            "State": "Yucatán",
+            "Town": "Maria Luisa",
+            "PostalCode": "97199"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1999-09-18",
+                "FirstName": "SEBASTIAN",
+                "email": "sebas75@gmail.com",
+                "KinshipExternalCode": "0075",
+                "LastName": "Sánchez López",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "16 de Septiembre",
+                    "ExternalNumber": "789",
+                    "InternalNumber": "B-8",
+                    "City": "Mérida",
+                    "Country": "México",
+                    "State": "Yucatán",
+                    "Town": "Maria Luisa",
+                    "PostalCode": "97199"
+                }
+            },
+            {
+                "BirthDate": "1988-10-26",
+                "FirstName": "Emiliano",
+                "email": "javier@gmail.com",
+                "KinshipExternalCode": "0011",
+                "LastName": "Rodríguez García",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Zaragoza",
+                    "ExternalNumber": "230",
+                    "InternalNumber": "52",
+                    "City": "GUADALAJARA",
+                    "Country": "MEXCO",
+                    "State": "JALISCO",
+                    "Town": "ANALCO",
+                    "PostalCode": "44450"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF2_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 17393.2,
+            "total": 17393.2,
+            "taxAmount": 0,
+            "priceWithExpense": 17393.2,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 17393.2
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 500.0,
+                "insuredAmount": 1000000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 866.0,
+                "insuredAmount": 100000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 2741.2,
+                "insuredAmount": 5000,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 3850.0,
+                "insuredAmount": 1000000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 8130.0,
+                "insuredAmount": 1000000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1306.0,
+                "insuredAmount": 200000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "MARLENE",
+        "LastName": "DE LA CRUZ LUNA",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 17393.2,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011785",
+        "CardYear": "28"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702012</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001m5q/uwduK8hMDgj2SI5lBZO1BwNYWn3uQVXf0XLmaT.3bZI</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "DOHF631114HHGRRC03",
+        "FirstName": "FACUNDO",
+        "LastName": "DOROTEO HERNANDEZ",
+        "RFC": "DOHF631114IT1",
+        "PhoneNumber": "5678979874",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1963-11-14"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Emiliano ",
+            "ExternalNumber": "45",
+            "InternalNumber": "12",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Mi Retiro",
+            "PostalCode": "57465"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1997-02-12",
+                "FirstName": "XIMENA",
+                "email": "xime32@gmail.com",
+                "KinshipExternalCode": "0003",
+                "LastName": "Sánchez Hernández",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "Reforma",
+                    "ExternalNumber": "456",
+                    "InternalNumber": "8",
+                    "City": "Nezahualcóyotl",
+                    "Country": "México",
+                    "State": "México",
+                    "Town": "Mi Retiro",
+                    "PostalCode": "57465"
+                }
+            },
+            {
+                "BirthDate": "1975-05-14",
+                "FirstName": "Diego",
+                "email": "Santiago@gmail.com",
+                "KinshipExternalCode": "0006",
+                "LastName": "López Pérez",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Independencia",
+                    "ExternalNumber": "145",
+                    "InternalNumber": "66",
+                    "City": "Huaniqueo",
+                    "Country": "México",
+                    "State": "Michoacán de Ocampo",
+                    "Town": "Barrio Alto",
+                    "PostalCode": "58360"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF3_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 26089.8,
+            "total": 26089.8,
+            "taxAmount": 0,
+            "priceWithExpense": 26089.8,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 2174.15
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 750.0,
+                "insuredAmount": 1500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 1299.0,
+                "insuredAmount": 150000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 4111.8,
+                "insuredAmount": 7500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 5775.0,
+                "insuredAmount": 1500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 12195.0,
+                "insuredAmount": 1500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1959.0,
+                "insuredAmount": 300000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "132",
+        "CardCVV": "245",
+        "FirstName": "FACUNDO",
+        "LastName": "DOROTEO HERNANDEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 2174.15,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234125000",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702014</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001mc5/8RU3fXwt1YIYoXZKRaFbZqihwOzGbFVqVqluzEYCtdU</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "DOHF660129HVZMRR08",
+        "FirstName": "FRANCISCO",
+        "LastName": "DOMINGUEZ HERNANDEZ",
+        "RFC": "DOHF660129N90",
+        "PhoneNumber": "5578497854",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1966-01-29"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Madero",
+            "ExternalNumber": "41",
+            "InternalNumber": "41",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Evolución Poniente",
+            "PostalCode": "57708"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "2000-06-13",
+                "FirstName": "SOFIA",
+                "email": "sofia@gmail.com",
+                "KinshipExternalCode": "0012",
+                "LastName": "Rodríguez López",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "CIENCIA",
+                    "ExternalNumber": "221",
+                    "InternalNumber": "6-f",
+                    "City": "NEZAHUALCÓYOTL",
+                    "Country": "MEXCO",
+                    "State": "ESTADO DE MÉXICO",
+                    "Town": "JUÁREZ PANTITLÁN",
+                    "PostalCode": "57460"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 8696.6
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "FRANCISCO",
+        "LastName": "DOMINGUEZ HERNANDEZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 8696.6,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234567891011789",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702015</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001mdh/S2gtAK6ydWb3FpnOOLuia48clUuYCF58Vivdm0A5j3g</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "EAVA701026HDFSLN02",
+        "FirstName": "JOSE ANTONIO",
+        "LastName": "ESTRADA VALLEJO",
+        "RFC": "EAVA701026SH1",
+        "PhoneNumber": "5674557845",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1970-10-26"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Miguel Hidalgo",
+            "ExternalNumber": "500",
+            "InternalNumber": "12",
+            "City": "Morelia",
+            "Country": "México",
+            "State": "Michoacán de Ocampo",
+            "Town": "Atapaneo",
+            "PostalCode": "58300"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1999-12-15",
+                "FirstName": "VALENTINA ",
+                "email": "vale12@gmail.com",
+                "KinshipExternalCode": "0075",
+                "LastName": "García Martínez",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "19 TARATA CRESCENT",
+                    "ExternalNumber": "12",
+                    "InternalNumber": "1",
+                    "City": "MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "ECATEPEC DE MORELOS",
+                    "PostalCode": "55024"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF2_ROOT",
+            "StartDate": "2024-10-15",
+            "EndDate": "2025-10-15",
+            "Amount": 17393.2,
+            "total": 17393.2,
+            "taxAmount": 0,
+            "priceWithExpense": 17393.2,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1449.43
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 500.0,
+                "insuredAmount": 1000000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 866.0,
+                "insuredAmount": 100000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 2741.2,
+                "insuredAmount": 5000,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 3850.0,
+                "insuredAmount": 1000000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 8130.0,
+                "insuredAmount": 1000000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1306.0,
+                "insuredAmount": 200000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "JOSE ANTONIO",
+        "LastName": "ESTRADA VALLEJO",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 1449.43,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011785",
+        "CardYear": "30"
     }
 }</t>
   </si>
@@ -47134,7 +51941,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D81D4E2-87CB-42D0-9159-220D39FAA5E4}">
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C190" sqref="C190"/>
@@ -50393,6 +55200,354 @@
         <v>990</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>16</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D202" t="s">
+        <v>218</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G202" t="s">
+        <v>231</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I202" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>16</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D203" t="s">
+        <v>233</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G203" t="s">
+        <v>219</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I203" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>16</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D204" t="s">
+        <v>236</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G204" t="s">
+        <v>231</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I204" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>16</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D205" t="s">
+        <v>218</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G205" t="s">
+        <v>219</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I205" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>16</v>
+      </c>
+      <c r="B206" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D206" t="s">
+        <v>233</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G206" t="s">
+        <v>231</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I206" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>16</v>
+      </c>
+      <c r="B207" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D207" t="s">
+        <v>236</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G207" t="s">
+        <v>219</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I207" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>16</v>
+      </c>
+      <c r="B208" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D208" t="s">
+        <v>218</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G208" t="s">
+        <v>231</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I208" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>16</v>
+      </c>
+      <c r="B209" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D209" t="s">
+        <v>233</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G209" t="s">
+        <v>219</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I209" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>16</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D210" t="s">
+        <v>236</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G210" t="s">
+        <v>231</v>
+      </c>
+      <c r="H210" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I210" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>16</v>
+      </c>
+      <c r="B211" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D211" t="s">
+        <v>218</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G211" t="s">
+        <v>219</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I211" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>16</v>
+      </c>
+      <c r="B212" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D212" t="s">
+        <v>233</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G212" t="s">
+        <v>231</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I212" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>16</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D213" t="s">
+        <v>236</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G213" t="s">
+        <v>219</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I213" t="s">
+        <v>990</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2" xr:uid="{A4AC4C7C-BB63-45F4-BD41-0BD4AE14501D}"/>
@@ -50406,7 +55561,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFCA402-A7C2-4FBA-98A9-78646D072615}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
@@ -52004,6 +57159,368 @@
         <v>990</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D80" t="s">
+        <v>316</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H80" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D81" t="s">
+        <v>319</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H81" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D82" t="s">
+        <v>319</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H82" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D83" t="s">
+        <v>319</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H83" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D84" t="s">
+        <v>316</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H84" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D85" t="s">
+        <v>319</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H85" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D86" t="s">
+        <v>319</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H86" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D87" t="s">
+        <v>319</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H87" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D88" t="s">
+        <v>319</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H88" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D89" t="s">
+        <v>316</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H89" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D90" t="s">
+        <v>319</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H90" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D91" t="s">
+        <v>319</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H91" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" t="s">
+        <v>319</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H92" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" t="s">
+        <v>319</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H93" t="s">
+        <v>990</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -52011,7 +57528,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C462262-D32E-4A6B-9410-964D57826A49}">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="F103" sqref="F103"/>
@@ -54799,6 +60316,356 @@
         <v>996</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D113" t="s">
+        <v>288</v>
+      </c>
+      <c r="E113" t="s">
+        <v>289</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H113" t="s">
+        <v>735</v>
+      </c>
+      <c r="I113" t="s">
+        <v>219</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K113" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D114" t="s">
+        <v>293</v>
+      </c>
+      <c r="E114" t="s">
+        <v>289</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H114" t="s">
+        <v>738</v>
+      </c>
+      <c r="I114" t="s">
+        <v>219</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K114" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D115" t="s">
+        <v>297</v>
+      </c>
+      <c r="E115" t="s">
+        <v>307</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H115" t="s">
+        <v>741</v>
+      </c>
+      <c r="I115" t="s">
+        <v>219</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K115" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D116" t="s">
+        <v>297</v>
+      </c>
+      <c r="E116" t="s">
+        <v>298</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H116" t="s">
+        <v>744</v>
+      </c>
+      <c r="I116" t="s">
+        <v>219</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K116" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D117" t="s">
+        <v>297</v>
+      </c>
+      <c r="E117" t="s">
+        <v>289</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H117" t="s">
+        <v>747</v>
+      </c>
+      <c r="I117" t="s">
+        <v>231</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K117" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D118" t="s">
+        <v>288</v>
+      </c>
+      <c r="E118" t="s">
+        <v>298</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H118" t="s">
+        <v>750</v>
+      </c>
+      <c r="I118" t="s">
+        <v>219</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K118" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D119" t="s">
+        <v>293</v>
+      </c>
+      <c r="E119" t="s">
+        <v>307</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H119" t="s">
+        <v>753</v>
+      </c>
+      <c r="I119" t="s">
+        <v>231</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K119" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D120" t="s">
+        <v>288</v>
+      </c>
+      <c r="E120" t="s">
+        <v>307</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H120" t="s">
+        <v>756</v>
+      </c>
+      <c r="I120" t="s">
+        <v>231</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K120" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D121" t="s">
+        <v>293</v>
+      </c>
+      <c r="E121" t="s">
+        <v>298</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H121" t="s">
+        <v>760</v>
+      </c>
+      <c r="I121" t="s">
+        <v>219</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K121" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D122" t="s">
+        <v>293</v>
+      </c>
+      <c r="E122" t="s">
+        <v>289</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H122" t="s">
+        <v>764</v>
+      </c>
+      <c r="I122" t="s">
+        <v>231</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K122" t="s">
+        <v>996</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink location="DG000009TCI1/a/dl0000000L9J/pFTU6SuDKUb8UX5jxm7R6koWLH0SlwFaO.3Jr9NOHGk" r:id="rId1" ref="C28" xr:uid="{D0DD3569-A0EA-4BD8-B4B1-67B318B47677}"/>

--- a/Data Files/polizas.xlsx
+++ b/Data Files/polizas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4874" uniqueCount="1455">
   <si>
     <t>numPoliza</t>
   </si>
@@ -44993,6 +44993,6472 @@
         "CardYear": "30"
     }
 }</t>
+  </si>
+  <si>
+    <t>1702361</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001uHt/B3Gxz3qeAe1yNeUl2gQw29oK7mD71Oa.Sf5e_fn0xcE</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CAEM671028HDFMSR04",
+        "FirstName": "MARTIN",
+        "LastName": "CAMACHO ESPINOZA",
+        "RFC": "CAEM671028498",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "false",
+        "Driver": {
+            "FirstName": "pepe",
+            "LastName": "mendoza victoria",
+            "PhoneNumber": "5618988021",
+            "Email": "pep@gmail.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "12345665437894563",
+            "EngineNumber": "47561313133313288",
+            "NumberPlate": "DBG123",
+            "Brand": "MZ",
+            "Year": "2010",
+            "Model": "004",
+            "ModelDesc": "MZ036",
+            "Type": "001",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "A06",
+            "StartDate": "2024-10-25",
+            "EndDate": "2025-10-25",
+            "Amount": 1392.7,
+            "total": 2079.53,
+            "taxAmount": 286.83,
+            "priceWithExpense": 1792.7,
+            "expense": 400.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 173.29,
+            "PorcRecaDctoVol": 45.0,
+            "PorcRecaDctoEarnix": 45.0,
+            "MtoRecaDctoEarnix": 1139.47,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 1041.29,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 40.65,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 203.5,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 107.26,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "MARTIN",
+        "LastName": "CAMACHO ESPINOZA",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 173.29,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123123",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>2024-10-25</t>
+  </si>
+  <si>
+    <t>1702362</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001uJV/P18tYhoWG.59haXGOXhZ2d7nqwxDCCGtVlaomTzkRgY</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "SALP000331MCLLPLA2",
+        "FirstName": "PAULA GUADALUPE",
+        "LastName": "SALINAS LOPEZ",
+        "RFC": "SALP000331653",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "12345665437894563",
+            "EngineNumber": "47561313133313266",
+            "NumberPlate": "DBG852",
+            "Brand": "MZ",
+            "Year": "2014",
+            "Model": "004",
+            "ModelDesc": "MZ012",
+            "Type": "001",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "A05",
+            "StartDate": "2024-10-25",
+            "EndDate": "2025-10-25",
+            "Amount": 3590.22,
+            "total": 4744.66,
+            "taxAmount": 654.44,
+            "priceWithExpense": 4090.22,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 395.39,
+            "PorcRecaDctoVol": 45.0,
+            "PorcRecaDctoEarnix": 40.1,
+            "MtoRecaDctoEarnix": 2403.77,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "316966.0",
+                "code": "A004",
+                "price": 1545.26,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 1041.29,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 40.65,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "17911.85",
+                "code": "A017",
+                "price": 490.8,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A014",
+                "price": 161.46,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 203.5,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 107.26,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "PAULA GUADALUPE",
+        "LastName": "SALINAS LOPEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 395.39,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123456",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702363</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001uL7/oYoD3hNy29tq_kmCEloh.AZR0jWHCnACtFQ2kj9PhKU</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CAEM730130HMCRNR04",
+        "FirstName": "MARCOS",
+        "LastName": "CARRILLO ENDOQUI",
+        "RFC": "CAEM730130AC2",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "12345665478945612",
+            "EngineNumber": "12345665478945689",
+            "NumberPlate": "DBG956",
+            "Brand": "BA",
+            "Year": "2022",
+            "Model": "011",
+            "ModelDesc": "BA902",
+            "Type": "002",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "B03",
+            "StartDate": "2024-10-25",
+            "EndDate": "2025-10-25",
+            "Amount": 16062.09,
+            "total": 19212.02,
+            "taxAmount": 2649.93,
+            "priceWithExpense": 16562.09,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1601.0,
+            "PorcRecaDctoVol": 40.0,
+            "PorcRecaDctoEarnix": 36.41,
+            "MtoRecaDctoEarnix": 9197.98,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "75000.0",
+                "code": "A002",
+                "price": 0.0,
+                "PorcDed": "20.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "413910.0",
+                "code": "A004",
+                "price": 6487.27,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 1233.53,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 82.61,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "23908.46",
+                "code": "A017",
+                "price": 948.41,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "15412.85",
+                "code": "A016",
+                "price": 839.7,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "413910.0",
+                "code": "A001",
+                "price": 5727.77,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "12000.0",
+                "code": "A014",
+                "price": 312.0,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A015",
+                "price": 165.0,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 222.0,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 43.8,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "MARCOS",
+        "LastName": "CARRILLO ENDOQUI",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 1601.0,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123745",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702364</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001uMj/KgjbIK9iKf_F2Tmt8wPRZrUGvLVJkO8xL0H1VTgEf0g</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "SALP590927HOCLPD02",
+        "FirstName": "PEDRO ANTONIO",
+        "LastName": "SALINAS LOPEZ",
+        "RFC": "SALP590927M45",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "78564565478945612",
+            "EngineNumber": "78564565478945678",
+            "NumberPlate": "RMV261",
+            "Brand": "VM",
+            "Year": "2017",
+            "Model": "001",
+            "ModelDesc": "VMAD0",
+            "Type": "017",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "I01",
+            "StartDate": "2024-10-25",
+            "EndDate": "2025-10-25",
+            "Amount": 5747.25,
+            "total": 7246.81,
+            "taxAmount": 999.56,
+            "priceWithExpense": 6247.25,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 603.9,
+            "PorcRecaDctoVol": 25.0,
+            "PorcRecaDctoEarnix": 25.0,
+            "MtoRecaDctoEarnix": 1915.74,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "75000.0",
+                "code": "A002",
+                "price": 0.0,
+                "PorcDed": "20.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "152000.0",
+                "code": "A004",
+                "price": 408.96,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 927.12,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "100000.0",
+                "code": "A006",
+                "price": 455.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "152000.0",
+                "code": "A001",
+                "price": 3651.51,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 110.89,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 193.5,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "PEDRO ANTONIO",
+        "LastName": "SALINAS LOPEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 603.9,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123789",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702365</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001uOL/jOnFfLORJ0iT0TVXehrbgGnHIr33bhTk3rzWN7ljmC0</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CAFA740131MMCSLN04",
+        "FirstName": "MARIA ANGELICA",
+        "LastName": "CASTILLO FLORIN",
+        "RFC": "CAFA740131EB1",
+        "PhoneNumber": "5570662434",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "false",
+        "Driver": {
+            "FirstName": "pedro",
+            "LastName": "infante infante",
+            "PhoneNumber": "5514521442",
+            "Email": "pedro@gmail.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Felipe Ángeles",
+            "ExternalNumber": "219",
+            "InternalNumber": "",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "JM3TB28V390101251",
+            "EngineNumber": "12345678910111278",
+            "NumberPlate": "RMV261",
+            "Brand": "LE",
+            "Year": "2023",
+            "Model": "005",
+            "ModelDesc": "LE013",
+            "Type": "001",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "A03",
+            "StartDate": "2024-10-25",
+            "EndDate": "2025-10-25",
+            "Amount": 12689.37,
+            "total": 15299.67,
+            "taxAmount": 2110.3,
+            "priceWithExpense": 13189.37,
+            "expense": 500.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 15299.67,
+            "PorcRecaDctoVol": 45.0,
+            "PorcRecaDctoEarnix": 41.14,
+            "MtoRecaDctoEarnix": 8870.99,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "75000.0",
+                "code": "A002",
+                "price": 0.0,
+                "PorcDed": "20.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "781107.0",
+                "code": "A004",
+                "price": 3809.65,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 495.37,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 46.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "41080.56",
+                "code": "A017",
+                "price": 741.78,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "25198.05",
+                "code": "A016",
+                "price": 611.6,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "781107.0",
+                "code": "A001",
+                "price": 6277.23,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "12000.0",
+                "code": "A014",
+                "price": 322.92,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A015",
+                "price": 170.77,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 142.45,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 71.33,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "MARIA ANGELICA",
+        "LastName": "CASTILLO FLORIN",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 15299.67,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "123",
+        "CardYear": "27"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702366</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001uPx/a3V_sB1UM7BHPhqeATdemhNEXj1j78TLIxCPPG7cYPc</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROSA850204HDFBLR02",
+        "FirstName": "ARTURO",
+        "LastName": "ROBLES SALDANA",
+        "RFC": "ROSA8502044W8",
+        "PhoneNumber": "5583270816",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Felipe Ángeles",
+            "ExternalNumber": "220",
+            "InternalNumber": "",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "1HGCP2F32BA127286",
+            "EngineNumber": "12345678910111289",
+            "NumberPlate": "RMV261",
+            "Brand": "VM",
+            "Year": "2004",
+            "Model": "065",
+            "ModelDesc": "VMK13",
+            "Type": "017",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "I04",
+            "StartDate": "2024-10-25",
+            "EndDate": "2025-10-25",
+            "Amount": 1686.78,
+            "total": 2420.66,
+            "taxAmount": 333.88,
+            "priceWithExpense": 2086.78,
+            "expense": 400.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 201.72,
+            "PorcRecaDctoVol": 25.0,
+            "PorcRecaDctoEarnix": 25.0,
+            "MtoRecaDctoEarnix": 562.26,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 927.12,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "100000.0",
+                "code": "A006",
+                "price": 455.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 110.89,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 193.5,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "123",
+        "FirstName": "ARTURO",
+        "LastName": "ROBLES SALDANA",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 201.72,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "123",
+        "CardYear": "28"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702367</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001uRZ/hzJaZAktlsrCXMATwVJGcT2BbXrCM35sSsHGh.7pMJg</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROGB620512MDFXTR06",
+        "FirstName": "BERTHA",
+        "LastName": "ROA GUTIERREZ",
+        "RFC": "ROGB620512BR3",
+        "PhoneNumber": "5583270817",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Abasolo",
+            "ExternalNumber": "239",
+            "InternalNumber": "3",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "HJ345I78910111213",
+            "EngineNumber": "12345678910111222",
+            "NumberPlate": "YTR261",
+            "Brand": "FO",
+            "Year": "2023",
+            "Model": "025",
+            "ModelDesc": "FOC69",
+            "Type": "002",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "B05",
+            "StartDate": "2024-10-25",
+            "EndDate": "2025-10-25",
+            "Amount": 14633.82,
+            "total": 17555.23,
+            "taxAmount": 2421.41,
+            "priceWithExpense": 15133.82,
+            "expense": 500.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 17555.23,
+            "PorcRecaDctoVol": 40.0,
+            "PorcRecaDctoEarnix": 38.13,
+            "MtoRecaDctoEarnix": 9019.58,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "822483.0",
+                "code": "A004",
+                "price": 12669.68,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 542.7,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 121.98,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "43685.65",
+                "code": "A017",
+                "price": 948.41,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A014",
+                "price": 156.0,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 72.61,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 122.44,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "BERTHA",
+        "LastName": "ROA GUTIERREZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 17555.23,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "123",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702368</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001uTB/5M1_l1lZM99X_gOFc_xUsp9Ee4gEAkZPdYDJnY_osBg</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "RORM750920MQTXMR04",
+        "FirstName": "MARISA",
+        "LastName": "ROA RAMIREZ",
+        "RFC": "RORM750920HT4",
+        "PhoneNumber": "5570662439",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "false",
+        "Driver": {
+            "FirstName": "luis",
+            "LastName": "pérez pérez",
+            "PhoneNumber": "5214121012",
+            "Email": "luis@gmail.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "JUÁREZ",
+            "ExternalNumber": "249",
+            "InternalNumber": "A",
+            "City": "NEZAHUALCÓYOTL",
+            "Country": "MEXICO",
+            "State": "ESTADO DE MÉXICO",
+            "Town": "JUÁREZ PANTITLÁN",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "RTJ45678910111213",
+            "EngineNumber": "12345678910111233",
+            "NumberPlate": "YTR261",
+            "Brand": "FO",
+            "Year": "2010",
+            "Model": "025",
+            "ModelDesc": "FO718",
+            "Type": "002",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "B06",
+            "StartDate": "2024-10-25",
+            "EndDate": "2025-10-25",
+            "Amount": 859.73,
+            "total": 1461.29,
+            "taxAmount": 201.56,
+            "priceWithExpense": 1259.73,
+            "expense": 400.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1461.29,
+            "PorcRecaDctoVol": 40.0,
+            "PorcRecaDctoEarnix": 40.0,
+            "MtoRecaDctoEarnix": 573.13,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 542.7,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 121.98,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 72.61,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 122.44,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "MARISA",
+        "LastName": "ROA RAMIREZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 1461.29,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "321",
+        "CardYear": "27"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702369</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001uUn/Y_5TltI3nKtFEcklSSJ1HQQ_VC72kw29vFsYqk34xOQ</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROVA640424MCHCLL04",
+        "FirstName": "MARIA ALEJANDRA",
+        "LastName": "ROACHO VILLA",
+        "RFC": "ROVA640424T19",
+        "PhoneNumber": "5583270814",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Felipe Ángeles",
+            "ExternalNumber": "219",
+            "InternalNumber": "",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "GT6Y5678910111213",
+            "EngineNumber": "12345678910111244",
+            "NumberPlate": "YTR261",
+            "Brand": "VM",
+            "Year": "2004",
+            "Model": "065",
+            "ModelDesc": "VMK13",
+            "Type": "017",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "I03",
+            "StartDate": "2024-10-25",
+            "EndDate": "2025-10-25",
+            "Amount": 1928.47,
+            "total": 2817.03,
+            "taxAmount": 388.56,
+            "priceWithExpense": 2428.47,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 234.75,
+            "PorcRecaDctoVol": 25.0,
+            "PorcRecaDctoEarnix": 25.0,
+            "MtoRecaDctoEarnix": 642.82,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "89830.0",
+                "code": "A004",
+                "price": 241.69,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 927.12,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "100000.0",
+                "code": "A006",
+                "price": 455.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 110.89,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 193.5,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "321",
+        "FirstName": "MARIA ALEJANDRA",
+        "LastName": "ROACHO VILLA",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 234.75,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "321",
+        "CardYear": "27"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702370</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000001uWP/5nFv9cuWLTSFyxsT6vk_iQge7a_xPLjLJrkNw0O1TLI</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROSJ690516HCCBNN04",
+        "FirstName": "JUAN DE JESUS",
+        "LastName": "ROBALDINO SANCHEZ",
+        "RFC": "ROSJ690516650",
+        "PhoneNumber": "5583270814",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "false",
+        "Driver": {
+            "FirstName": "luis",
+            "LastName": "pérez pérez",
+            "PhoneNumber": "5214121012",
+            "Email": "luis@gmail.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Felipe Ángeles",
+            "ExternalNumber": "219",
+            "InternalNumber": "",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "U7Y45678910111213",
+            "EngineNumber": "12345678910111289",
+            "NumberPlate": "YTR261",
+            "Brand": "HM",
+            "Year": "2006",
+            "Model": "002",
+            "ModelDesc": "HM003",
+            "Type": "001",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "A05",
+            "StartDate": "2024-10-25",
+            "EndDate": "2025-10-25",
+            "Amount": 3032.59,
+            "total": 4097.8,
+            "taxAmount": 565.21,
+            "priceWithExpense": 3532.59,
+            "expense": 500.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 4097.8,
+            "PorcRecaDctoVol": 45.0,
+            "PorcRecaDctoEarnix": 33.77,
+            "MtoRecaDctoEarnix": 1545.98,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "360220.0",
+                "code": "A004",
+                "price": 1134.1,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 495.37,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 46.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "20515.86",
+                "code": "A017",
+                "price": 981.61,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A014",
+                "price": 161.46,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 142.45,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 71.33,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "123",
+        "FirstName": "JUAN DE JESUS",
+        "LastName": "ROBALDINO SANCHEZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 4097.8,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "123",
+        "CardYear": "27"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702481</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000024nV/wy4vhWEgdr6UqjhRyKCNEwYKWamhxeLNWSQonpRtgHE</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "AABF830222HDFLSR06",
+        "FirstName": "ENRIQUE",
+        "LastName": "ALVAREZ BUSTAMANTE",
+        "RFC": "AABF8302221S7",
+        "PhoneNumber": "5686767563",
+        "Email": "CATALINA@cliente.com",
+        "isDriver": false,
+        "Driver": {
+            "FirstName": "Carlos",
+            "LastName": "romero romero",
+            "PhoneNumber": "7894561235",
+            "Email": "carlos@gmail.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle1",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "78564565478945612",
+            "EngineNumber": "78564565478945612",
+            "NumberPlate": "RMV261",
+            "Brand": "VM",
+            "Year": "2011",
+            "Model": "002",
+            "ModelDesc": "VMI66",
+            "Type": "017",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "I01",
+            "StartDate": "2024-11-05",
+            "EndDate": "2025-11-05",
+            "Amount": 2162.28,
+            "total": 3088.24,
+            "taxAmount": 425.96,
+            "priceWithExpense": 2662.28,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 257.35,
+            "PorcRecaDctoVol": 25.0,
+            "PorcRecaDctoEarnix": 25.0,
+            "MtoRecaDctoEarnix": 720.76,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "75000.0",
+                "code": "A002",
+                "price": 0.0,
+                "PorcDed": "20.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "17800.0",
+                "code": "A004",
+                "price": 47.89,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 927.12,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "100000.0",
+                "code": "A006",
+                "price": 455.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "17800.0",
+                "code": "A001",
+                "price": 427.61,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 110.89,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 193.5,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "ENRIQUE",
+        "LastName": "ALVAREZ BUSTAMANTE",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 257.35,
+        "IsRecurringPayment": true,
+        "CardMonth": 12,
+        "CardNumber": 653412351234123465,
+        "CardYear": 23
+    }
+}</t>
+  </si>
+  <si>
+    <t>2024-11-05</t>
+  </si>
+  <si>
+    <t>1702053</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028O5/2R6Pr2cP6myecNIWHJxxqzCrJWw_Pxp7ANH5ekF.Pm0</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "VADL750612HCSZMS05",
+        "FirstName": "LUIS ANTONIO",
+        "LastName": "VAZQUEZ DOMINGUEZ",
+        "RFC": "VADL750612HE2",
+        "PhoneNumber": "5586768965",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1975-06-12"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Chapultepec",
+            "ExternalNumber": "300",
+            "InternalNumber": "2",
+            "City": "Álvaro Obregon",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "8 de Agosto",
+            "PostalCode": "01180"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1995-04-15",
+                "FirstName": "Pedro",
+                "email": "pedro9207@gmail.com",
+                "KinshipExternalCode": "0029",
+                "LastName": "MENDOZA RINCON",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "CALLE 7",
+                    "ExternalNumber": "12-D",
+                    "InternalNumber": "11-c",
+                    "City": "CIUDAD DE MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "IZTAPALAPA",
+                    "PostalCode": "09690"
+                }
+            },
+            {
+                "BirthDate": "1985-05-14",
+                "FirstName": "ANDRES",
+                "email": "cesar123@gmail.com",
+                "KinshipExternalCode": "0005",
+                "LastName": "CARDENAS CAMPERO",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "CHRISTIE 456",
+                    "ExternalNumber": "229",
+                    "InternalNumber": "5",
+                    "City": "GUADALAJARA",
+                    "Country": "MEXCO",
+                    "State": "JALISCO",
+                    "Town": "ANALCO",
+                    "PostalCode": "44450"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 8696.6
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "LUIS ANTONIO",
+        "LastName": "VAZQUEZ DOMINGUEZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 8696.6,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123000",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>1702059</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028Xl/Z47K3ETi0MDBxGyzqASQudqPN3_BUO65oILt1l135yc</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "VAGM580826MDFZTR01",
+        "FirstName": "MARTHA ANGELICA",
+        "LastName": "VAZQUEZ GUTIERREZ",
+        "RFC": "VAGM580826M50",
+        "PhoneNumber": "5696878451",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1958-08-26"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "16 de Septiembre",
+            "ExternalNumber": "789",
+            "InternalNumber": "B-8",
+            "City": "Mérida",
+            "Country": "México",
+            "State": "Yucatán",
+            "Town": "Maria Luisa",
+            "PostalCode": "97199"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1995-04-15",
+                "FirstName": "Roberto",
+                "email": "roberto@gmail.com",
+                "KinshipExternalCode": "0003",
+                "LastName": "MENDOZA VICTORIA",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "MARIO",
+                    "ExternalNumber": "12-D",
+                    "InternalNumber": "11-c",
+                    "City": "CIUDAD DE MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "IZTAPALAPA",
+                    "PostalCode": "09690"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF3_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 26089.8,
+            "total": 26089.8,
+            "taxAmount": 0,
+            "priceWithExpense": 26089.8,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 26089.8
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 750.0,
+                "insuredAmount": 1500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 1299.0,
+                "insuredAmount": 150000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 4111.8,
+                "insuredAmount": 7500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 5775.0,
+                "insuredAmount": 1500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 12195.0,
+                "insuredAmount": 1500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1959.0,
+                "insuredAmount": 300000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "MARTHA ANGELICA",
+        "LastName": "VAZQUEZ GUTIERREZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 26089.8,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123000",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702061</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028az/JeCOUsOvd7M8Bj5282hwTwpTwJW6b9Lov_x678OuBGg</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "VAMJ590302HDFRRV04",
+        "FirstName": "JAVIER",
+        "LastName": "VARGAS MARTINEZ",
+        "RFC": "VAMJ590302SJ7",
+        "PhoneNumber": "5570662434",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1975-06-12"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Reforma",
+            "ExternalNumber": "456",
+            "InternalNumber": "8",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Mi Retiro",
+            "PostalCode": "57465"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1995-04-13",
+                "FirstName": "LUIS GUSTAVO",
+                "email": "lgmenlop@gmail.com",
+                "KinshipExternalCode": "0012",
+                "LastName": "MENDOZA SANCHEZ",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "CIENCIA",
+                    "ExternalNumber": "221",
+                    "InternalNumber": "6-f",
+                    "City": "NEZAHUALCÓYOTL",
+                    "Country": "MEXCO",
+                    "State": "ESTADO DE MÉXICO",
+                    "Town": "JUÁREZ PANTITLÁN",
+                    "PostalCode": "57460"
+                }
+            },
+            {
+                "BirthDate": "1995-05-14",
+                "FirstName": "josé",
+                "email": "pep@gmail.com",
+                "KinshipExternalCode": "0006",
+                "LastName": "RODRÍGUEZ SÁNCHEZ",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "CHRISTIE 456",
+                    "ExternalNumber": "229",
+                    "InternalNumber": "6",
+                    "City": "GUADALAJARA",
+                    "Country": "MEXCO",
+                    "State": "JALISCO",
+                    "Town": "ANALCO",
+                    "PostalCode": "44450"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 724.72
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "JAVIER",
+        "LastName": "VARGAS MARTINEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 724.72,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234567891011121",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702062</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028cb/qGJ8iO27sqq3sBtEksE_xQAkVTiqi3Hv1EDLcq.94qg</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "VARM720915HDFLMG00",
+        "FirstName": "MIGUEL ANGEL",
+        "LastName": "VALLEJO RAMOS",
+        "RFC": "VARM720915KZA",
+        "PhoneNumber": "5583270815",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1972-09-15"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "calle 2 ",
+            "ExternalNumber": "15",
+            "InternalNumber": "12",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Evolución Poniente",
+            "PostalCode": "57708"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1995-04-15",
+                "FirstName": "ANTONIA",
+                "email": "antonia@gmail.com",
+                "KinshipExternalCode": "0011",
+                "LastName": "BENICIO MANZANO",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "MATEMATICAS",
+                    "ExternalNumber": "12",
+                    "InternalNumber": "1",
+                    "City": "MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "ECATEPEC DE MORELOS",
+                    "PostalCode": "55024"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 8696.6
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "245",
+        "FirstName": "MIGUEL ANGEL",
+        "LastName": "VALLEJO RAMOS",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 8696.6,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011121",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702063</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028eD/SAa044El0AcpXpTe_cUTaBbs9JvWmwpoK9ejLLiHeeQ</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "VEGA740424HDFGRL08",
+        "FirstName": "ALEJANDRO SALVADOR",
+        "LastName": "VEGA GARCIA",
+        "RFC": "VEGA740424198",
+        "PhoneNumber": "5583270815",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1974-04-24"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "calle 3",
+            "ExternalNumber": "14",
+            "InternalNumber": "B-9",
+            "City": "Morelia",
+            "Country": "México",
+            "State": "Michoacán de Ocampo",
+            "Town": "Atapaneo",
+            "PostalCode": "58300"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1995-04-15",
+                "FirstName": "Carlos",
+                "email": "carlos@gmail.com",
+                "KinshipExternalCode": "0005",
+                "LastName": "BENICIO PEREZ",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "ABASOLO",
+                    "ExternalNumber": "12",
+                    "InternalNumber": "1",
+                    "City": "MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "ECATEPEC DE MORELOS",
+                    "PostalCode": "55024"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF2_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 17393.2,
+            "total": 17393.2,
+            "taxAmount": 0,
+            "priceWithExpense": 17393.2,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1449.43
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 500.0,
+                "insuredAmount": 1000000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 866.0,
+                "insuredAmount": 100000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 2741.2,
+                "insuredAmount": 5000,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 3850.0,
+                "insuredAmount": 1000000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 8130.0,
+                "insuredAmount": 1000000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1306.0,
+                "insuredAmount": 200000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "ALEJANDRO SALVADOR",
+        "LastName": "VEGA GARCIA",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 1449.43,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011121",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702064</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028fp/bsCE_zUmL1HgKs1W894CSlWdK5hHorNifW8rOdsaxfQ</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "VENM820421MDFLRR09",
+        "FirstName": "MARISOL",
+        "LastName": "VELAZQUEZ NORIEGA",
+        "RFC": "VENM8204217KA",
+        "PhoneNumber": "5583270814",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1982-04-21"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Hidalgo",
+            "ExternalNumber": "66",
+            "InternalNumber": "N-5",
+            "City": "Álvaro Obregon",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "8 de Agosto",
+            "PostalCode": "01180"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1995-04-15",
+                "FirstName": "Hector",
+                "email": "hector@gmail.com",
+                "KinshipExternalCode": "0006",
+                "LastName": "Quijano Valenzuela",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "CALLE PALMA ",
+                    "ExternalNumber": "12",
+                    "InternalNumber": "1",
+                    "City": "MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "ECATEPEC DE MORELOS",
+                    "PostalCode": "55024"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 8696.6
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "245",
+        "FirstName": "MARISOL",
+        "LastName": "VELAZQUEZ NORIEGA",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 8696.6,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011121",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702066</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028j3/mWWTL7UfWtLO5c_v0Wz8qCQtJ2YafoQxhoyEy0dwqDY</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "VICI930227HDFLHV00",
+        "FirstName": "IVAN JAVIER",
+        "LastName": "VILLEGAS CHAVEZ",
+        "RFC": "VICI9302278P2",
+        "PhoneNumber": "5570662436",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1993-02-27"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Benito Juárez",
+            "ExternalNumber": "9",
+            "InternalNumber": "452",
+            "City": "Mérida",
+            "Country": "México",
+            "State": "Yucatán",
+            "Town": "Maria Luisa",
+            "PostalCode": "97199"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1995-04-15",
+                "FirstName": "Alberto",
+                "email": "alberto@gmail.com",
+                "KinshipExternalCode": "0018",
+                "LastName": "PERÉZ PÉREZ",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "CALLE 2",
+                    "ExternalNumber": "12",
+                    "InternalNumber": "1",
+                    "City": "MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "ECATEPEC DE MORELOS",
+                    "PostalCode": "55024"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 724.72
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "245",
+        "FirstName": "IVAN JAVIER",
+        "LastName": "VILLEGAS CHAVEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 724.72,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011121",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702067</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028kf/lE9Xw92nrPjUBSB8slEpMPg8V_DKadY8I8jua8OAyCY</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "VICJ771109HDFCSN06",
+        "FirstName": "JONATHAN ERNESTO",
+        "LastName": "VICTORIA CASTILLO",
+        "RFC": "VICJ771109DEA",
+        "PhoneNumber": "5570662436",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1977-11-09"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Emiliano ",
+            "ExternalNumber": "45",
+            "InternalNumber": "12",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Mi Retiro",
+            "PostalCode": "57465"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1995-04-15",
+                "FirstName": "Mario",
+                "email": "mario@gmail.com",
+                "KinshipExternalCode": "0017",
+                "LastName": "SÁNCHEZ RODRIGUEZ",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "CALLE 1",
+                    "ExternalNumber": "12",
+                    "InternalNumber": "1",
+                    "City": "MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "ECATEPEC DE MORELOS",
+                    "PostalCode": "55024"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF2_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 17393.2,
+            "total": 17393.2,
+            "taxAmount": 0,
+            "priceWithExpense": 17393.2,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 17393.2
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 500.0,
+                "insuredAmount": 1000000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 866.0,
+                "insuredAmount": 100000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 2741.2,
+                "insuredAmount": 5000,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 3850.0,
+                "insuredAmount": 1000000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 8130.0,
+                "insuredAmount": 1000000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1306.0,
+                "insuredAmount": 200000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "JONATHAN ERNESTO",
+        "LastName": "VICTORIA CASTILLO",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 17393.2,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011121",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702068</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028mH/8ovM552XgsByQniT1lb_4khLIlSutS0QYsNnXsy2Zkk</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "VIMA721122MMCRRL04",
+        "FirstName": "ALMA ROSA",
+        "LastName": "VIRAMONTES MARTINEZ",
+        "RFC": "VIMA721122AD4",
+        "PhoneNumber": "5570662440",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1972-11-22"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Madero",
+            "ExternalNumber": "41",
+            "InternalNumber": "41",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Evolución Poniente",
+            "PostalCode": "57708"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1995-04-15",
+                "FirstName": "Adrian",
+                "email": "adrian@gmail.com",
+                "KinshipExternalCode": "0075",
+                "LastName": "MARTINEZ LÓPEZ",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "19 TARATA CRESCENT",
+                    "ExternalNumber": "12",
+                    "InternalNumber": "1",
+                    "City": "MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "ECATEPEC DE MORELOS",
+                    "PostalCode": "55024"
+                }
+            },
+            {
+                "BirthDate": "1995-05-14",
+                "FirstName": "HUMBERTO",
+                "email": "humberto@gmail.com",
+                "KinshipExternalCode": "0011",
+                "LastName": "GONZÁLEZ GARCÍA",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "CHRISTIE 456",
+                    "ExternalNumber": "229",
+                    "InternalNumber": "5",
+                    "City": "GUADALAJARA",
+                    "Country": "MEXCO",
+                    "State": "JALISCO",
+                    "Town": "ANALCO",
+                    "PostalCode": "44450"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF2_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 17393.2,
+            "total": 17393.2,
+            "taxAmount": 0,
+            "priceWithExpense": 17393.2,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 17393.2
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 500.0,
+                "insuredAmount": 1000000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 866.0,
+                "insuredAmount": 100000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 2741.2,
+                "insuredAmount": 5000,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 3850.0,
+                "insuredAmount": 1000000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 8130.0,
+                "insuredAmount": 1000000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1306.0,
+                "insuredAmount": 200000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "ALMA ROSA",
+        "LastName": "VIRAMONTES MARTINEZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 17393.2,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011121",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028nt/nXZHPRNpKcXEkKw8mWFoI1S9BMfXimBt7FmuA7NoIu4</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CAFA740131MMCSLN04",
+        "FirstName": "MARIA ANGELICA",
+        "LastName": "CASTILLO FLORIN",
+        "RFC": "CAFA740131EB1",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1974-01-31"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "546",
+            "InternalNumber": "0",
+            "City": "Benito Juárez",
+            "Country": "México",
+            "State": "Ciudad de México",
+            "Town": "Del Valle Centro",
+            "PostalCode": "03100"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Calle 3",
+                "ExternalNumber": "546",
+                "InternalNumber": "0",
+                "City": "Benito Juárez",
+                "Country": "México",
+                "State": "Ciudad de México",
+                "Town": "Del Valle Centro",
+                "PostalCode": "03100"
+            },
+            "Value": "4000000",
+            "ContentsInsuredAmount": "40",
+            "Levels": "3",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "false"
+        },
+        "ContentsInformation": {
+            "Value": "4000000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_PROPIO_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 9264.13,
+            "total": 11094.39,
+            "taxAmount": 1530.26,
+            "priceWithExpense": 9564.13,
+            "expense": 300.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 924.53
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01E",
+                "price": 5352.88,
+                "insuredAmount": 8000000.0,
+                "name": "TEEV-EDIFICIO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02E",
+                "price": 60.32,
+                "insuredAmount": 800000.0,
+                "name": "TEEV-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01E",
+                "price": 1010.4,
+                "insuredAmount": 8000000.0,
+                "name": "RHMT-EDIFICIO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02E",
+                "price": 60.32,
+                "insuredAmount": 800000.0,
+                "name": "RHMT-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005E",
+                "price": 301.8,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013E",
+                "price": 60.32,
+                "insuredAmount": 800000.0,
+                "name": "INCE-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001E",
+                "price": 362.16,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003E",
+                "price": 181.08,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004E",
+                "price": 181.08,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002E",
+                "price": 181.08,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011E",
+                "price": 36.0,
+                "insuredAmount": 360000.0,
+                "name": "INCE-EDIFICIO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "TE01C",
+                "price": 535.3,
+                "insuredAmount": 1600000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 202.08,
+                "insuredAmount": 1600000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 60.36,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 72.43,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 7.2,
+                "insuredAmount": 72000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-PROPIO-FAMILIAR"
+            },
+            {
+                "code": "I099E",
+                "price": null,
+                "insuredAmount": 400.0,
+                "name": "GASTOS EXTRAORDINARIOS"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-PROPIO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-PROPIO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-PROPIO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "72",
+        "CardCVV": "123",
+        "FirstName": "MARIA ANGELICA",
+        "LastName": "CASTILLO FLORIN",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 924.53,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123465",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028pV/mh.Cd1Tsbv2nmCOPZrmsiQ6CIz5WrS.nnIUhkLM5G5w</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CAEG730419MMCMSL07",
+        "FirstName": "GLORIA",
+        "LastName": "CAMBEROS ESCARTIN",
+        "RFC": "CAEG7304196U3",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1984-08-11"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "546",
+            "InternalNumber": "0",
+            "City": "Benito Juárez",
+            "Country": "México",
+            "State": "Ciudad de México",
+            "Town": "Del Valle Centro",
+            "PostalCode": "03100"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Calle 3",
+                "ExternalNumber": "546",
+                "InternalNumber": "0",
+                "City": "Benito Juárez",
+                "Country": "México",
+                "State": "Ciudad de México",
+                "Town": "Del Valle Centro",
+                "PostalCode": "03100"
+            },
+            "Value": "4000000",
+            "ContentsInsuredAmount": "40",
+            "Levels": "3",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "false"
+        },
+        "ContentsInformation": {
+            "Value": "4000000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_RENTADO_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 1489.59,
+            "total": 2075.92,
+            "taxAmount": 286.33,
+            "priceWithExpense": 1789.59,
+            "expense": 300.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 172.99
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01C",
+                "price": 535.3,
+                "insuredAmount": 1600000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 202.08,
+                "insuredAmount": 1600000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 60.36,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 72.43,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 7.2,
+                "insuredAmount": 72000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-FAMILIAR"
+            },
+            {
+                "code": "RCF2",
+                "price": 12.9,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-ARRENDATARIO"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-RENTADO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-RENTADO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-RENTADO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "72",
+        "CardCVV": "123",
+        "FirstName": "GLORIA",
+        "LastName": "CAMBEROS ESCARTIN",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 172.99,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123465",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028r7/DluDQd1txliDJHS3nxrzXswTGmlgITlqQieMxKAMZZA</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028sj/5Pq_l8yygjk7U5m89_YfCa7o0.aDwlN5iC67rrFdCPA</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "RORD930720MGRBDN04",
+        "FirstName": "DENISSE",
+        "LastName": "ROBLES RODRIGUEZ",
+        "RFC": "RORD930720QY9",
+        "PhoneNumber": "5570662434",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1993-07-20"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "ABASOLO",
+            "ExternalNumber": "219",
+            "InternalNumber": "5",
+            "City": "NEZAHUALCÓYOTL",
+            "Country": "MEXICO",
+            "State": "ESTADO DE MÉXICO",
+            "Town": "JUÁREZ PANTITLÁN",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "ABASOLO",
+                "ExternalNumber": "219",
+                "InternalNumber": "5",
+                "City": "NEZAHUALCÓYOTL",
+                "Country": "MEXICO",
+                "State": "ESTADO DE MÉXICO",
+                "Town": "JUÁREZ PANTITLÁN",
+                "PostalCode": "57460"
+            },
+            "Value": "6000000",
+            "ContentsInsuredAmount": "20",
+            "Levels": "2",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "true"
+        },
+        "ContentsInformation": {
+            "Value": "6000000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_RENTADO_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 4300.66,
+            "total": 5336.77,
+            "taxAmount": 736.11,
+            "priceWithExpense": 4600.66,
+            "expense": 300.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 5336.77
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01C",
+                "price": 2007.36,
+                "insuredAmount": 6000000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 45.24,
+                "insuredAmount": 600000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 757.8,
+                "insuredAmount": 6000000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 45.24,
+                "insuredAmount": 600000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 226.35,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 45.24,
+                "insuredAmount": 600000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 271.62,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 135.81,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 135.81,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 135.81,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 27.0,
+                "insuredAmount": 270000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-FAMILIAR"
+            },
+            {
+                "code": "RCF2",
+                "price": 12.9,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-ARRENDATARIO"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-RENTADO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-RENTADO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-RENTADO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "565",
+        "FirstName": "DENISSE",
+        "LastName": "ROBLES RODRIGUEZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 5336.77,
+        "IsRecurringPayment": "true",
+        "CardMonth": "5",
+        "CardNumber": "1234567891011121",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028vx/nuOacV3PaD5TfGSTyeF1D8DMwMn.XtrSwl8izgF6EqY</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "EAJE711007HDFSMR04",
+        "FirstName": "ERNESTO",
+        "LastName": "ESCAMILLA JIMENEZ",
+        "RFC": "EAJE7110074F4",
+        "PhoneNumber": "5570662434",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1973-10-13"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Abasolo",
+            "ExternalNumber": "219",
+            "InternalNumber": "C",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantilán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Abasolo",
+                "ExternalNumber": "219",
+                "InternalNumber": "C",
+                "City": "Nezahualcóyotl",
+                "Country": "México",
+                "State": "Estado de México",
+                "Town": "Juárez Pantilán",
+                "PostalCode": "57460"
+            },
+            "Value": "8000000",
+            "ContentsInsuredAmount": "20",
+            "Levels": "2",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "true"
+        },
+        "ContentsInformation": {
+            "Value": "8000000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_PROPIO_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 9264.13,
+            "total": 11094.39,
+            "taxAmount": 1530.26,
+            "priceWithExpense": 9564.13,
+            "expense": 300.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 924.53
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01E",
+                "price": 5352.88,
+                "insuredAmount": 8000000.0,
+                "name": "TEEV-EDIFICIO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02E",
+                "price": 60.32,
+                "insuredAmount": 800000.0,
+                "name": "TEEV-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01E",
+                "price": 1010.4,
+                "insuredAmount": 8000000.0,
+                "name": "RHMT-EDIFICIO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02E",
+                "price": 60.32,
+                "insuredAmount": 800000.0,
+                "name": "RHMT-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005E",
+                "price": 301.8,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013E",
+                "price": 60.32,
+                "insuredAmount": 800000.0,
+                "name": "INCE-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001E",
+                "price": 362.16,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003E",
+                "price": 181.08,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004E",
+                "price": 181.08,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002E",
+                "price": 181.08,
+                "insuredAmount": 8000000.0,
+                "name": "INCE-EDIFICIO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011E",
+                "price": 36.0,
+                "insuredAmount": 360000.0,
+                "name": "INCE-EDIFICIO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "TE01C",
+                "price": 535.3,
+                "insuredAmount": 1600000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 202.08,
+                "insuredAmount": 1600000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 60.36,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 72.43,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 7.2,
+                "insuredAmount": 72000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-PROPIO-FAMILIAR"
+            },
+            {
+                "code": "I099E",
+                "price": null,
+                "insuredAmount": 400.0,
+                "name": "GASTOS EXTRAORDINARIOS"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-PROPIO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-PROPIO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-PROPIO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "565",
+        "FirstName": "ERNESTO",
+        "LastName": "ESCAMILLA JIMENEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 924.53,
+        "IsRecurringPayment": "true",
+        "CardMonth": "5",
+        "CardNumber": "1234346574685785",
+        "CardYear": "29"
+    }
+}</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028xZ/Nf75cTvFaBRuoHhKSeSqsCTv6xEiO02KPyOqGWqJbn8</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "EAJE711007HDFSMR04",
+        "FirstName": "ERNESTO",
+        "LastName": "ESCAMILLA JIMENEZ",
+        "RFC": "EAJE7110074F4",
+        "PhoneNumber": "5512345678",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1973-10-13"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Abasolo",
+            "ExternalNumber": "219",
+            "InternalNumber": "C",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantilán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Abasolo",
+                "ExternalNumber": "219",
+                "InternalNumber": "C",
+                "City": "Nezahualcóyotl",
+                "Country": "México",
+                "State": "Estado de México",
+                "Town": "Juárez Pantilán",
+                "PostalCode": "57460"
+            },
+            "Value": "9000000",
+            "ContentsInsuredAmount": "20",
+            "Levels": "2",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "true"
+        },
+        "ContentsInformation": {
+            "Value": "9000000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_RENTADO_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 1489.59,
+            "total": 2075.92,
+            "taxAmount": 286.33,
+            "priceWithExpense": 1789.59,
+            "expense": 300.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 172.99
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01C",
+                "price": 535.3,
+                "insuredAmount": 1600000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 202.08,
+                "insuredAmount": 1600000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 60.36,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 72.43,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 7.2,
+                "insuredAmount": 72000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-FAMILIAR"
+            },
+            {
+                "code": "RCF2",
+                "price": 12.9,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-ARRENDATARIO"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-RENTADO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-RENTADO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-RENTADO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "565",
+        "FirstName": "ERNESTO",
+        "LastName": "ESCAMILLA JIMENEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 172.99,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234346574685785",
+        "CardYear": "29"
+    }
+}</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000028zB/Ut6vCfcGurb6FXc3UP1.n0Jd3ZvMp4ooQWN3kJvfsdw</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROBL891202MGTMLL04",
+        "FirstName": "LILIANA",
+        "LastName": "ROMERO BLANCARTE",
+        "RFC": "ROBL891202T25",
+        "PhoneNumber": "5570662438",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1989-12-02"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Juárez",
+            "ExternalNumber": "239",
+            "InternalNumber": "B",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantilán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Juárez",
+                "ExternalNumber": "239",
+                "InternalNumber": "B",
+                "City": "Nezahualcóyotl",
+                "Country": "México",
+                "State": "Estado de México",
+                "Town": "Juárez Pantilán",
+                "PostalCode": "57460"
+            },
+            "Value": "6000000",
+            "ContentsInsuredAmount": "20",
+            "Levels": "2",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "true"
+        },
+        "ContentsInformation": {
+            "Value": "6000000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_PROPIO_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 7061.71,
+            "total": 8539.58,
+            "taxAmount": 1177.87,
+            "priceWithExpense": 7361.71,
+            "expense": 300.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 711.63
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01E",
+                "price": 4014.66,
+                "insuredAmount": 6000000.0,
+                "name": "TEEV-EDIFICIO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02E",
+                "price": 45.24,
+                "insuredAmount": 600000.0,
+                "name": "TEEV-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01E",
+                "price": 757.8,
+                "insuredAmount": 6000000.0,
+                "name": "RHMT-EDIFICIO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02E",
+                "price": 45.24,
+                "insuredAmount": 600000.0,
+                "name": "RHMT-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005E",
+                "price": 226.35,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-EDIFICIO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013E",
+                "price": 45.24,
+                "insuredAmount": 600000.0,
+                "name": "INCE-EDIFICIO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001E",
+                "price": 271.62,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-EDIFICIO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003E",
+                "price": 135.81,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-EDIFICIO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004E",
+                "price": 135.81,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-EDIFICIO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002E",
+                "price": 135.81,
+                "insuredAmount": 6000000.0,
+                "name": "INCE-EDIFICIO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011E",
+                "price": 27.0,
+                "insuredAmount": 270000.0,
+                "name": "INCE-EDIFICIO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "TE01C",
+                "price": 401.47,
+                "insuredAmount": 1200000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 9.05,
+                "insuredAmount": 120000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 151.56,
+                "insuredAmount": 1200000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 9.05,
+                "insuredAmount": 120000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 45.27,
+                "insuredAmount": 1200000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 9.05,
+                "insuredAmount": 120000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 54.32,
+                "insuredAmount": 1200000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 27.16,
+                "insuredAmount": 1200000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 27.16,
+                "insuredAmount": 1200000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 27.16,
+                "insuredAmount": 1200000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 5.4,
+                "insuredAmount": 54000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-PROPIO-FAMILIAR"
+            },
+            {
+                "code": "I099E",
+                "price": null,
+                "insuredAmount": 400.0,
+                "name": "GASTOS EXTRAORDINARIOS"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-PROPIO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-PROPIO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-PROPIO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "565",
+        "FirstName": "LILIANA",
+        "LastName": "ROMERO BLANCARTE",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 711.63,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234346574685785",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl000000290n/0rYla1sRAawXNpoah.dOCdn.PJV2aa.IiHpSdjcYsug</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl000000292P/MN7cTq6HKh3.Ga7PO2y2.L3itxNZ2yOqJ3NOaQ8wCHE</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROBL891202MGTMLL04",
+        "FirstName": "LILIANA",
+        "LastName": "ROMERO BLANCARTE",
+        "RFC": "ROBL891202T25",
+        "PhoneNumber": "5570662438",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1989-12-02"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Juárez",
+            "ExternalNumber": "239",
+            "InternalNumber": "B",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantilán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Juárez",
+                "ExternalNumber": "239",
+                "InternalNumber": "B",
+                "City": "Nezahualcóyotl",
+                "Country": "México",
+                "State": "Estado de México",
+                "Town": "Juárez Pantilán",
+                "PostalCode": "57460"
+            },
+            "Value": "1400000",
+            "ContentsInsuredAmount": "20",
+            "Levels": "2",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "true"
+        },
+        "ContentsInformation": {
+            "Value": "1400000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_RENTADO_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 1361.83,
+            "total": 1927.72,
+            "taxAmount": 265.89,
+            "priceWithExpense": 1661.83,
+            "expense": 300.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1927.72
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01C",
+                "price": 468.38,
+                "insuredAmount": 1400000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 10.56,
+                "insuredAmount": 140000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 176.82,
+                "insuredAmount": 1400000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 10.56,
+                "insuredAmount": 140000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 52.82,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 10.56,
+                "insuredAmount": 140000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 63.38,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 31.69,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 31.69,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 31.69,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 6.3,
+                "insuredAmount": 63000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-FAMILIAR"
+            },
+            {
+                "code": "RCF2",
+                "price": 12.9,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-ARRENDATARIO"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-RENTADO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-RENTADO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-RENTADO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "565",
+        "FirstName": "LILIANA",
+        "LastName": "ROMERO BLANCARTE",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 1927.72,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234346574685785",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000002941/UKkVBALwiXSauqMsQDPVquliVTA60IhQ0UeB.K7OM3s</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "EAJE711007HDFSMR04",
+        "FirstName": "ERNESTO",
+        "LastName": "ESCAMILLA JIMENEZ",
+        "RFC": "EAJE7110074F4",
+        "PhoneNumber": "5570662434",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "BirthDate": "1973-10-13"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Abasolo",
+            "ExternalNumber": "219",
+            "InternalNumber": "C",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantilán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "Abasolo",
+                "ExternalNumber": "219",
+                "InternalNumber": "C",
+                "City": "Nezahualcóyotl",
+                "Country": "México",
+                "State": "Estado de México",
+                "Town": "Juárez Pantilán",
+                "PostalCode": "57460"
+            },
+            "Value": "1400000",
+            "ContentsInsuredAmount": "20",
+            "Levels": "2",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": "true"
+        },
+        "ContentsInformation": {
+            "Value": "1400000"
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_RENTADO_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 1361.83,
+            "total": 1927.72,
+            "taxAmount": 265.89,
+            "priceWithExpense": 1661.83,
+            "expense": 300.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 160.64
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01C",
+                "price": 468.38,
+                "insuredAmount": 1400000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 10.56,
+                "insuredAmount": 140000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 176.82,
+                "insuredAmount": 1400000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 10.56,
+                "insuredAmount": 140000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 52.82,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 10.56,
+                "insuredAmount": 140000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 63.38,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 31.69,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 31.69,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 31.69,
+                "insuredAmount": 1400000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 6.3,
+                "insuredAmount": 63000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-FAMILIAR"
+            },
+            {
+                "code": "RCF2",
+                "price": 12.9,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-ARRENDATARIO"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-RENTADO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-RENTADO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-RENTADO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "565",
+        "FirstName": "ERNESTO",
+        "LastName": "ESCAMILLA JIMENEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 160.64,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234346574685785",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702585</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl000000298r/wjFGcc2hk_LD5rr97uyzLKvb1NkhzT2hSTz9YA.9pwI</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CAEM671028HDFMSR04",
+        "FirstName": "MARTIN",
+        "LastName": "CAMACHO ESPINOZA",
+        "RFC": "CAEM671028498",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "false",
+        "Driver": {
+            "FirstName": "pepe",
+            "LastName": "mendoza victoria",
+            "PhoneNumber": "5618988021",
+            "Email": "pep@gmail.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "12345665437894563",
+            "EngineNumber": "47561313133313288",
+            "NumberPlate": "DBG123",
+            "Brand": "MZ",
+            "Year": "2010",
+            "Model": "004",
+            "ModelDesc": "MZ036",
+            "Type": "001",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "A06",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 1392.7,
+            "total": 2079.53,
+            "taxAmount": 286.83,
+            "priceWithExpense": 1792.7,
+            "expense": 400.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 173.29,
+            "PorcRecaDctoVol": 45.0,
+            "PorcRecaDctoEarnix": 45.0,
+            "MtoRecaDctoEarnix": 1139.47,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 1041.29,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 40.65,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 203.5,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 107.26,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "MARTIN",
+        "LastName": "CAMACHO ESPINOZA",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 173.29,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123123",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702586</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029AT/giloQwWKw5.Q4zQXRlRCShmajNJneY6di9NKpd2Mmvs</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "SALP000331MCLLPLA2",
+        "FirstName": "PAULA GUADALUPE",
+        "LastName": "SALINAS LOPEZ",
+        "RFC": "SALP000331653",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "12345665437894563",
+            "EngineNumber": "47561313133313266",
+            "NumberPlate": "DBG852",
+            "Brand": "MZ",
+            "Year": "2014",
+            "Model": "004",
+            "ModelDesc": "MZ012",
+            "Type": "001",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "A05",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 3590.22,
+            "total": 4744.66,
+            "taxAmount": 654.44,
+            "priceWithExpense": 4090.22,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 395.39,
+            "PorcRecaDctoVol": 45.0,
+            "PorcRecaDctoEarnix": 40.1,
+            "MtoRecaDctoEarnix": 2403.77,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "316966.0",
+                "code": "A004",
+                "price": 1545.26,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 1041.29,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 40.65,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "17911.85",
+                "code": "A017",
+                "price": 490.8,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A014",
+                "price": 161.46,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 203.5,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 107.26,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "PAULA GUADALUPE",
+        "LastName": "SALINAS LOPEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 395.39,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123456",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702588</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029Dh/Q.3k548y5J3vrgLshaKxHcDapE.gs32lMGp1RoCUSAM</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CAEM730130HMCRNR04",
+        "FirstName": "MARCOS",
+        "LastName": "CARRILLO ENDOQUI",
+        "RFC": "CAEM730130AC2",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "12345665478945612",
+            "EngineNumber": "12345665478945689",
+            "NumberPlate": "DBG956",
+            "Brand": "BA",
+            "Year": "2022",
+            "Model": "011",
+            "ModelDesc": "BA902",
+            "Type": "002",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "B03",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 16062.09,
+            "total": 19212.02,
+            "taxAmount": 2649.93,
+            "priceWithExpense": 16562.09,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1601.0,
+            "PorcRecaDctoVol": 40.0,
+            "PorcRecaDctoEarnix": 36.41,
+            "MtoRecaDctoEarnix": 9197.98,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "75000.0",
+                "code": "A002",
+                "price": 0.0,
+                "PorcDed": "20.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "413910.0",
+                "code": "A004",
+                "price": 6487.27,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 1233.53,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 82.61,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "23908.46",
+                "code": "A017",
+                "price": 948.41,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "15412.85",
+                "code": "A016",
+                "price": 839.7,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "413910.0",
+                "code": "A001",
+                "price": 5727.77,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "12000.0",
+                "code": "A014",
+                "price": 312.0,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A015",
+                "price": 165.0,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 222.0,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 43.8,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "MARCOS",
+        "LastName": "CARRILLO ENDOQUI",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 1601.0,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123745",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702590</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029Gv/JtPZy210XHR797uPSThzAI25Vyz4X7Z1aQ2x3RdKOyI</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "SALP590927HOCLPD02",
+        "FirstName": "PEDRO ANTONIO",
+        "LastName": "SALINAS LOPEZ",
+        "RFC": "SALP590927M45",
+        "PhoneNumber": "5518975987",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle 3",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "78564565478945612",
+            "EngineNumber": "78564565478945678",
+            "NumberPlate": "RMV261",
+            "Brand": "VM",
+            "Year": "2017",
+            "Model": "001",
+            "ModelDesc": "VMAD0",
+            "Type": "017",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "I01",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 5747.25,
+            "total": 7246.81,
+            "taxAmount": 999.56,
+            "priceWithExpense": 6247.25,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 603.9,
+            "PorcRecaDctoVol": 25.0,
+            "PorcRecaDctoEarnix": 25.0,
+            "MtoRecaDctoEarnix": 1915.74,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "75000.0",
+                "code": "A002",
+                "price": 0.0,
+                "PorcDed": "20.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "152000.0",
+                "code": "A004",
+                "price": 408.96,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 927.12,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "100000.0",
+                "code": "A006",
+                "price": 455.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "152000.0",
+                "code": "A001",
+                "price": 3651.51,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 110.89,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 193.5,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "PEDRO ANTONIO",
+        "LastName": "SALINAS LOPEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 603.9,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234123789",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702592</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029K9/fnb5yLbtcx.6Mlo5n6W1WdZWGKFlLnZinlhLASCd8bc</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CAFA740131MMCSLN04",
+        "FirstName": "MARIA ANGELICA",
+        "LastName": "CASTILLO FLORIN",
+        "RFC": "CAFA740131EB1",
+        "PhoneNumber": "5570662434",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "false",
+        "Driver": {
+            "FirstName": "pedro",
+            "LastName": "infante infante",
+            "PhoneNumber": "5514521442",
+            "Email": "pedro@gmail.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Felipe Ángeles",
+            "ExternalNumber": "219",
+            "InternalNumber": "",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "JM3TB28V390101251",
+            "EngineNumber": "12345678910111278",
+            "NumberPlate": "RMV261",
+            "Brand": "LE",
+            "Year": "2023",
+            "Model": "005",
+            "ModelDesc": "LE013",
+            "Type": "001",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "A03",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 12689.37,
+            "total": 15299.67,
+            "taxAmount": 2110.3,
+            "priceWithExpense": 13189.37,
+            "expense": 500.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 15299.67,
+            "PorcRecaDctoVol": 45.0,
+            "PorcRecaDctoEarnix": 41.14,
+            "MtoRecaDctoEarnix": 8870.99,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "75000.0",
+                "code": "A002",
+                "price": 0.0,
+                "PorcDed": "20.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "781107.0",
+                "code": "A004",
+                "price": 3809.65,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 495.37,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 46.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "41080.56",
+                "code": "A017",
+                "price": 741.78,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "25198.05",
+                "code": "A016",
+                "price": 611.6,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "781107.0",
+                "code": "A001",
+                "price": 6277.23,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "12000.0",
+                "code": "A014",
+                "price": 322.92,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A015",
+                "price": 170.77,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 142.45,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 71.33,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "MARIA ANGELICA",
+        "LastName": "CASTILLO FLORIN",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 15299.67,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "123",
+        "CardYear": "27"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702593</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029Ll/IzlQdJO_gjXKiVsXaRDp48QbYAg7b5_SFja6sf6NEjA</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROSA850204HDFBLR02",
+        "FirstName": "ARTURO",
+        "LastName": "ROBLES SALDANA",
+        "RFC": "ROSA8502044W8",
+        "PhoneNumber": "5583270816",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Felipe Ángeles",
+            "ExternalNumber": "220",
+            "InternalNumber": "",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "1HGCP2F32BA127286",
+            "EngineNumber": "12345678910111289",
+            "NumberPlate": "RMV261",
+            "Brand": "VM",
+            "Year": "2004",
+            "Model": "065",
+            "ModelDesc": "VMK13",
+            "Type": "017",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "I04",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 1686.78,
+            "total": 2420.66,
+            "taxAmount": 333.88,
+            "priceWithExpense": 2086.78,
+            "expense": 400.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 201.72,
+            "PorcRecaDctoVol": 25.0,
+            "PorcRecaDctoEarnix": 25.0,
+            "MtoRecaDctoEarnix": 562.26,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 927.12,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "100000.0",
+                "code": "A006",
+                "price": 455.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 110.89,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 193.5,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "123",
+        "FirstName": "ARTURO",
+        "LastName": "ROBLES SALDANA",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 201.72,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "123",
+        "CardYear": "28"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702595</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029Qb/RZm7p65QZwRnOEh9hLUnAVNajkhtNwxIoMqO07SY9ZA</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROGB620512MDFXTR06",
+        "FirstName": "BERTHA",
+        "LastName": "ROA GUTIERREZ",
+        "RFC": "ROGB620512BR3",
+        "PhoneNumber": "5583270817",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Abasolo",
+            "ExternalNumber": "239",
+            "InternalNumber": "3",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "HJ345I78910111213",
+            "EngineNumber": "12345678910111222",
+            "NumberPlate": "YTR261",
+            "Brand": "FO",
+            "Year": "2023",
+            "Model": "025",
+            "ModelDesc": "FOC69",
+            "Type": "002",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "B05",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 14633.82,
+            "total": 17555.23,
+            "taxAmount": 2421.41,
+            "priceWithExpense": 15133.82,
+            "expense": 500.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 17555.23,
+            "PorcRecaDctoVol": 40.0,
+            "PorcRecaDctoEarnix": 38.13,
+            "MtoRecaDctoEarnix": 9019.58,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "822483.0",
+                "code": "A004",
+                "price": 12669.68,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 542.7,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 121.98,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "43685.65",
+                "code": "A017",
+                "price": 948.41,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A014",
+                "price": 156.0,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 72.61,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 122.44,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "BERTHA",
+        "LastName": "ROA GUTIERREZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 17555.23,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "123",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702596</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029SD/5mMZkmPkisoIztTCRXyqEhSiWXRfOpYQV9UP9nNEDUQ</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "RORM750920MQTXMR04",
+        "FirstName": "MARISA",
+        "LastName": "ROA RAMIREZ",
+        "RFC": "RORM750920HT4",
+        "PhoneNumber": "5570662439",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "false",
+        "Driver": {
+            "FirstName": "luis",
+            "LastName": "pérez pérez",
+            "PhoneNumber": "5214121012",
+            "Email": "luis@gmail.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "JUÁREZ",
+            "ExternalNumber": "249",
+            "InternalNumber": "A",
+            "City": "NEZAHUALCÓYOTL",
+            "Country": "MEXICO",
+            "State": "ESTADO DE MÉXICO",
+            "Town": "JUÁREZ PANTITLÁN",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "RTJ45678910111213",
+            "EngineNumber": "12345678910111233",
+            "NumberPlate": "YTR261",
+            "Brand": "FO",
+            "Year": "2010",
+            "Model": "025",
+            "ModelDesc": "FO718",
+            "Type": "002",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "B06",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 859.73,
+            "total": 1461.29,
+            "taxAmount": 201.56,
+            "priceWithExpense": 1259.73,
+            "expense": 400.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1461.29,
+            "PorcRecaDctoVol": 40.0,
+            "PorcRecaDctoEarnix": 40.0,
+            "MtoRecaDctoEarnix": 573.13,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 542.7,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 121.98,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 72.61,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 122.44,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "123",
+        "FirstName": "MARISA",
+        "LastName": "ROA RAMIREZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 1461.29,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "321",
+        "CardYear": "27"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702597</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029Tp/MijhpqzIlWV8Jp0_R05ct.NvqwlCT3p2StxFCTap2IY</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROVA640424MCHCLL04",
+        "FirstName": "MARIA ALEJANDRA",
+        "LastName": "ROACHO VILLA",
+        "RFC": "ROVA640424T19",
+        "PhoneNumber": "5583270814",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "true",
+        "Driver": {
+            "FirstName": "",
+            "LastName": "",
+            "PhoneNumber": "",
+            "Email": ""
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Felipe Ángeles",
+            "ExternalNumber": "219",
+            "InternalNumber": "",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "GT6Y5678910111213",
+            "EngineNumber": "12345678910111244",
+            "NumberPlate": "YTR261",
+            "Brand": "VM",
+            "Year": "2004",
+            "Model": "065",
+            "ModelDesc": "VMK13",
+            "Type": "017",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "I03",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 1928.47,
+            "total": 2817.03,
+            "taxAmount": 388.56,
+            "priceWithExpense": 2428.47,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 234.75,
+            "PorcRecaDctoVol": 25.0,
+            "PorcRecaDctoEarnix": 25.0,
+            "MtoRecaDctoEarnix": 642.82,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "89830.0",
+                "code": "A004",
+                "price": 241.69,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 927.12,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "100000.0",
+                "code": "A006",
+                "price": 455.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 110.89,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 193.5,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "321",
+        "FirstName": "MARIA ALEJANDRA",
+        "LastName": "ROACHO VILLA",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 234.75,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "321",
+        "CardYear": "27"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702598</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029VR/tROjzKxqzPTD5wX2QVGNwx.mkyICmUXpTLn98YB0Q1I</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "ROSJ690516HCCBNN04",
+        "FirstName": "JUAN DE JESUS",
+        "LastName": "ROBALDINO SANCHEZ",
+        "RFC": "ROSJ690516650",
+        "PhoneNumber": "5583270814",
+        "Email": "juanjuanmendezmendez000@gmail.com",
+        "isDriver": "false",
+        "Driver": {
+            "FirstName": "luis",
+            "LastName": "pérez pérez",
+            "PhoneNumber": "5214121012",
+            "Email": "luis@gmail.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Felipe Ángeles",
+            "ExternalNumber": "219",
+            "InternalNumber": "",
+            "City": "Nezahuálcoyotl",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "Juárez Pantitlán",
+            "PostalCode": "57460"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "U7Y45678910111213",
+            "EngineNumber": "12345678910111289",
+            "NumberPlate": "YTR261",
+            "Brand": "HM",
+            "Year": "2006",
+            "Model": "002",
+            "ModelDesc": "HM003",
+            "Type": "001",
+            "PostalCode": "57460",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "A05",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 3032.59,
+            "total": 4097.8,
+            "taxAmount": 565.21,
+            "priceWithExpense": 3532.59,
+            "expense": 500.0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 4097.8,
+            "PorcRecaDctoVol": 45.0,
+            "PorcRecaDctoEarnix": 33.77,
+            "MtoRecaDctoEarnix": 1545.98,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "360220.0",
+                "code": "A004",
+                "price": 1134.1,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 495.37,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "50000.0",
+                "code": "A006",
+                "price": 46.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "20515.86",
+                "code": "A017",
+                "price": 981.61,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "6000.0",
+                "code": "A014",
+                "price": 161.46,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 142.45,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 71.33,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "072",
+        "CardCVV": "123",
+        "FirstName": "JUAN DE JESUS",
+        "LastName": "ROBALDINO SANCHEZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 4097.8,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "123",
+        "CardYear": "27"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702599</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029gj/wi_qOnjZnuk.zNd7ZPJmxPd_nXTQ76Swf5c58TQFMGY</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "AABF830222HDFLSR06",
+        "FirstName": "ENRIQUE",
+        "LastName": "ALVAREZ BUSTAMANTE",
+        "RFC": "AABF8302221S7",
+        "PhoneNumber": "5686767563",
+        "Email": "CATALINA@cliente.com",
+        "isDriver": true,
+        "Driver": {
+            "FirstName": "ENRIQUE",
+            "LastName": "ALVAREZ BUSTAMANTE",
+            "PhoneNumber": "5686767563",
+            "Email": "CATALINA@cliente.com"
+        }
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Calle1",
+            "ExternalNumber": "2-A",
+            "InternalNumber": "1-A",
+            "City": "NEZAHUALCOYOTL",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "VehicleInformation": {
+            "SerieNumber": "78564565478945612",
+            "EngineNumber": "78564565478945612",
+            "NumberPlate": "RMV261",
+            "Brand": "VM",
+            "Year": "2017",
+            "Model": "001",
+            "ModelDesc": "VMAD0",
+            "Type": "017",
+            "PostalCode": "57000",
+            "isParticular": true,
+            "AcceptanceInformation": true,
+            "AcceptanceLaw": true
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "A003",
+            "Code": "I01",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 5747.25,
+            "total": 7246.81,
+            "taxAmount": 999.56,
+            "priceWithExpense": 6247.25,
+            "expense": 500.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 603.9,
+            "PorcRecaDctoVol": 25.0,
+            "PorcRecaDctoEarnix": 25.0,
+            "MtoRecaDctoEarnix": 1915.74,
+            "CodRecaDctoBE": "",
+            "CodRecaDctoDis": "",
+            "CodRecaDctoEarnix": "ADL01",
+            "CodRecaDctoVol": "ADV02",
+            "PorcRecaDctoBE": 0.0,
+            "PorcRecaDctoDis": 0.0,
+            "TipoRecaDctoBE": "",
+            "TipoRecaDctoDis": "",
+            "TipoRecaDctoEarnix": "D",
+            "TipoRecaDctoVol": "D"
+        },
+        "PackageCoverage": [
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "75000.0",
+                "code": "A002",
+                "price": 0.0,
+                "PorcDed": "20.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "152000.0",
+                "code": "A004",
+                "price": 408.96,
+                "PorcDed": "5.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "4000000.0",
+                "code": "A005",
+                "price": 927.12,
+                "PorcDed": "0.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "100000.0",
+                "code": "A006",
+                "price": 455.27,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "152000.0",
+                "code": "A001",
+                "price": 3651.51,
+                "PorcDed": "3.0"
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "750000.0",
+                "code": "A010",
+                "price": 110.89,
+                "PorcDed": ""
+            },
+            {
+                "CoberturaSeleccionada": "S",
+                "CoberturaVisible": "S",
+                "IndCobertOblig": "S",
+                "insuredAmount": "1000000.0",
+                "code": "A009",
+                "price": 193.5,
+                "PorcDed": ""
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "ENRIQUE",
+        "LastName": "ALVAREZ BUSTAMANTE",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 603.9,
+        "IsRecurringPayment": true,
+        "CardMonth": 12,
+        "CardNumber": 653412351234123465,
+        "CardYear": 23
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702075</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029iL/oghtFwl6Tl6iJ2W6S7sqnm7FlzcNHg8bf6OwepflkuM</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029lZ/kwbJo2JKnMl4EiYduRHiQGRnftdfNtUrYekwvl1IhOg</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "AABF830222HDFLSR06",
+        "FirstName": "ENRIQUE",
+        "LastName": "ALVAREZ BUSTAMANTE",
+        "RFC": "AABF8302221S7",
+        "PhoneNumber": "5686767563",
+        "Email": "CATALINA@cliente.com",
+        "BirthDate": "1983-02-22"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "39 HATAITAI ROAD",
+            "ExternalNumber": "23-d",
+            "InternalNumber": "22-c",
+            "City": "MEXICO",
+            "Country": "MEXICO",
+            "State": "MEXICO",
+            "Town": "NEZAHUALCOYOTL",
+            "PostalCode": "57000"
+        }
+    },
+    "Step3": {
+        "BuildingInformation": {
+            "Address": {
+                "Street": "39 HATAITAI ROAD",
+                "ExternalNumber": "23-d",
+                "InternalNumber": "22-c",
+                "City": "MEXICO",
+                "Country": "MEXICO",
+                "State": "MEXICO",
+                "Town": "NEZAHUALCOYOTL",
+                "PostalCode": "57000"
+            },
+            "Value": 4000000,
+            "ContentsInsuredAmount": 40,
+            "Levels": "3",
+            "BuildingAge": "&lt;=50",
+            "MarDistance": false
+        },
+        "ContentsInformation": {
+            "Value": 4000000
+        }
+    },
+    "Step4": {
+        "Package": {
+            "branch": "CAHA",
+            "Code": "SEGURO_CASA_HABITACION_APF_RENTADO_ROOT",
+            "StartDate": "2024-11-08",
+            "EndDate": "2025-11-08",
+            "Amount": 1489.59,
+            "total": 2075.92,
+            "taxAmount": 286.33,
+            "priceWithExpense": 1789.59,
+            "expense": 300.0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 172.99
+        },
+        "PackageCoverage": [
+            {
+                "code": "TE01C",
+                "price": 535.3,
+                "insuredAmount": 1600000.0,
+                "name": "TEEV-CONTENIDO-TERREMOTO Y ERUPCIÓN VOLCÁNICA"
+            },
+            {
+                "code": "TE02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "TEEV-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "RH01C",
+                "price": 202.08,
+                "insuredAmount": 1600000.0,
+                "name": "RHMT-CONTENIDO-RIESGOS HIDROMETEOROLÓGICOS"
+            },
+            {
+                "code": "RH02C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "RHMT-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I005C",
+                "price": 60.36,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-TODO RIESGO (S)"
+            },
+            {
+                "code": "I013C",
+                "price": 12.06,
+                "insuredAmount": 160000.0,
+                "name": "INCE-CONTENIDO-REMOCIÓN DE ESCOMBROS"
+            },
+            {
+                "code": "I001C",
+                "price": 72.43,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-INCENDIO Y/O RAYO"
+            },
+            {
+                "code": "I003C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-HUELGAS Y ALBOROTOS POPULARES (S)"
+            },
+            {
+                "code": "I004C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXTENSIÓN DE CUBIERTA (S)"
+            },
+            {
+                "code": "I002C",
+                "price": 36.22,
+                "insuredAmount": 1600000.0,
+                "name": "INCE-CONTENIDO-EXPLOSIÓN (S)"
+            },
+            {
+                "code": "I011C",
+                "price": 7.2,
+                "insuredAmount": 72000.0,
+                "name": "INCE-CONTENIDO-AJUSTE AUTOMÁTICO POR INFLACIÓN (S)"
+            },
+            {
+                "code": "RCF1",
+                "price": 80.7,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-FAMILIAR"
+            },
+            {
+                "code": "RCF2",
+                "price": 12.9,
+                "insuredAmount": 1000000.0,
+                "name": "RCGE-RENTADO-ARRENDATARIO"
+            },
+            {
+                "code": "RB03",
+                "price": 338.2,
+                "insuredAmount": 100000.0,
+                "name": "DMRB-RENTADO-ROBO CON VIOLENCIA Y ASALTO"
+            },
+            {
+                "code": "RB15",
+                "price": 0.45,
+                "insuredAmount": 4500.0,
+                "name": "DMRB-RENTADO-AJUSTE AUTOMÁTICO POR INFLACIÓN"
+            },
+            {
+                "code": "MA01",
+                "price": 35.13,
+                "insuredAmount": 50000.0,
+                "name": "DMED-RENTADO-DAÑOS MATERIALES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "ENRIQUE",
+        "LastName": "ALVAREZ BUSTAMANTE",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 172.99,
+        "IsRecurringPayment": true,
+        "CardMonth": 12,
+        "CardNumber": 653412351234123465,
+        "CardYear": 23
+    }
+}</t>
+  </si>
+  <si>
+    <t>1702601</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029qP/cRjT7zS5eerpJU.I1G1xSTKe47Gl55siMvBOUhjqAuo</t>
+  </si>
+  <si>
+    <t>1702602</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029s1/PEjvOjXeGfIRLSJzCfXZu4Ur3TZ12bLN_dt8TWCdVPg</t>
+  </si>
+  <si>
+    <t>1702605</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl00000029yT/m7AbsudAOj.q.aXKiWRZ7z.Mdbd1eTRm8kZIDd.kVUo</t>
+  </si>
+  <si>
+    <t>1702085</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000002A1h/VnP0yYgnKaehlJSKBgiS0ZJYZjzHI9w31DyMAB_ECi0</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000002A4v/w9CuV3GGN5L4BJuSdVICynklrXa7gliB6iaVfIeLiCA</t>
+  </si>
+  <si>
+    <t>1702087</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000002A6X/r1OhjYsSNQhbiXiWvEkAjQeNpTCEtMEawdLsVP.NG5I</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000002A89/lOfJQplTQyNzMkTcD729m3Py7WHN.PGOAlLu0vwt_5Q</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000002A9l/KM.QIONif9gToqVgrip8zi6C8G6krH4MQTJI3U77VyQ</t>
   </si>
 </sst>
 </file>
@@ -51941,7 +58407,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D81D4E2-87CB-42D0-9159-220D39FAA5E4}">
-  <dimension ref="A1:J213"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C190" sqref="C190"/>
@@ -55548,6 +62014,383 @@
         <v>990</v>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>16</v>
+      </c>
+      <c r="B214" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D214" t="s">
+        <v>233</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G214" t="s">
+        <v>231</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I214" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>16</v>
+      </c>
+      <c r="B215" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D215" t="s">
+        <v>218</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G215" t="s">
+        <v>231</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I215" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>16</v>
+      </c>
+      <c r="B216" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D216" t="s">
+        <v>233</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G216" t="s">
+        <v>219</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I216" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>16</v>
+      </c>
+      <c r="B217" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D217" t="s">
+        <v>233</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G217" t="s">
+        <v>231</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I217" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>16</v>
+      </c>
+      <c r="B218" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D218" t="s">
+        <v>236</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G218" t="s">
+        <v>219</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I218" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>16</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D219" t="s">
+        <v>233</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G219" t="s">
+        <v>231</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I219" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>16</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D220" t="s">
+        <v>233</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G220" t="s">
+        <v>219</v>
+      </c>
+      <c r="H220" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I220" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>16</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D221" t="s">
+        <v>236</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G221" t="s">
+        <v>231</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I221" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>16</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D222" t="s">
+        <v>236</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G222" t="s">
+        <v>231</v>
+      </c>
+      <c r="H222" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I222" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>16</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D223" t="s">
+        <v>218</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F223" t="s">
+        <v>418</v>
+      </c>
+      <c r="G223" t="s">
+        <v>219</v>
+      </c>
+      <c r="H223" t="s">
+        <v>994</v>
+      </c>
+      <c r="I223" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>16</v>
+      </c>
+      <c r="B224" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D224" t="s">
+        <v>233</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F224" t="s">
+        <v>856</v>
+      </c>
+      <c r="G224" t="s">
+        <v>231</v>
+      </c>
+      <c r="H224" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I224" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>16</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D225" t="s">
+        <v>236</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F225" t="s">
+        <v>859</v>
+      </c>
+      <c r="G225" t="s">
+        <v>231</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I225" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>16</v>
+      </c>
+      <c r="B226" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D226" t="s">
+        <v>218</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F226" t="s">
+        <v>861</v>
+      </c>
+      <c r="G226" t="s">
+        <v>231</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I226" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2" xr:uid="{A4AC4C7C-BB63-45F4-BD41-0BD4AE14501D}"/>
@@ -55561,7 +62404,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFCA402-A7C2-4FBA-98A9-78646D072615}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
@@ -57521,6 +64364,344 @@
         <v>990</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" t="s">
+        <v>316</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H94" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" t="s">
+        <v>319</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H95" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" t="s">
+        <v>319</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H96" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" t="s">
+        <v>319</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H97" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" t="s">
+        <v>316</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H98" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>122</v>
+      </c>
+      <c r="D99" t="s">
+        <v>319</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H99" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100" t="s">
+        <v>316</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H100" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" t="s">
+        <v>316</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H101" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>126</v>
+      </c>
+      <c r="D102" t="s">
+        <v>319</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H102" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" t="s">
+        <v>319</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H103" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>29</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>142</v>
+      </c>
+      <c r="D104" t="s">
+        <v>319</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H104" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>143</v>
+      </c>
+      <c r="D105" t="s">
+        <v>316</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H105" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>144</v>
+      </c>
+      <c r="D106" t="s">
+        <v>319</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H106" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -57528,7 +64709,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C462262-D32E-4A6B-9410-964D57826A49}">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L147"/>
   <sheetViews>
     <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="F103" sqref="F103"/>
@@ -60666,6 +67847,881 @@
         <v>996</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D123" t="s">
+        <v>288</v>
+      </c>
+      <c r="E123" t="s">
+        <v>289</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H123" t="s">
+        <v>735</v>
+      </c>
+      <c r="I123" t="s">
+        <v>219</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K123" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D124" t="s">
+        <v>293</v>
+      </c>
+      <c r="E124" t="s">
+        <v>289</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H124" t="s">
+        <v>738</v>
+      </c>
+      <c r="I124" t="s">
+        <v>219</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K124" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D125" t="s">
+        <v>297</v>
+      </c>
+      <c r="E125" t="s">
+        <v>307</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H125" t="s">
+        <v>741</v>
+      </c>
+      <c r="I125" t="s">
+        <v>219</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K125" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D126" t="s">
+        <v>297</v>
+      </c>
+      <c r="E126" t="s">
+        <v>298</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H126" t="s">
+        <v>744</v>
+      </c>
+      <c r="I126" t="s">
+        <v>219</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K126" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D127" t="s">
+        <v>297</v>
+      </c>
+      <c r="E127" t="s">
+        <v>289</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H127" t="s">
+        <v>747</v>
+      </c>
+      <c r="I127" t="s">
+        <v>231</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K127" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D128" t="s">
+        <v>288</v>
+      </c>
+      <c r="E128" t="s">
+        <v>298</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H128" t="s">
+        <v>750</v>
+      </c>
+      <c r="I128" t="s">
+        <v>219</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K128" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D129" t="s">
+        <v>293</v>
+      </c>
+      <c r="E129" t="s">
+        <v>307</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H129" t="s">
+        <v>753</v>
+      </c>
+      <c r="I129" t="s">
+        <v>231</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K129" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D130" t="s">
+        <v>288</v>
+      </c>
+      <c r="E130" t="s">
+        <v>307</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H130" t="s">
+        <v>756</v>
+      </c>
+      <c r="I130" t="s">
+        <v>231</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K130" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D131" t="s">
+        <v>293</v>
+      </c>
+      <c r="E131" t="s">
+        <v>298</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H131" t="s">
+        <v>760</v>
+      </c>
+      <c r="I131" t="s">
+        <v>219</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K131" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D132" t="s">
+        <v>293</v>
+      </c>
+      <c r="E132" t="s">
+        <v>289</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H132" t="s">
+        <v>764</v>
+      </c>
+      <c r="I132" t="s">
+        <v>231</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K132" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D133" t="s">
+        <v>297</v>
+      </c>
+      <c r="E133" t="s">
+        <v>298</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H133" t="s">
+        <v>930</v>
+      </c>
+      <c r="I133" t="s">
+        <v>219</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K133" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D134" t="s">
+        <v>288</v>
+      </c>
+      <c r="E134" t="s">
+        <v>289</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H134" t="s">
+        <v>735</v>
+      </c>
+      <c r="I134" t="s">
+        <v>219</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K134" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D135" t="s">
+        <v>293</v>
+      </c>
+      <c r="E135" t="s">
+        <v>289</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H135" t="s">
+        <v>738</v>
+      </c>
+      <c r="I135" t="s">
+        <v>219</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K135" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D136" t="s">
+        <v>297</v>
+      </c>
+      <c r="E136" t="s">
+        <v>307</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H136" t="s">
+        <v>741</v>
+      </c>
+      <c r="I136" t="s">
+        <v>219</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K136" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D137" t="s">
+        <v>297</v>
+      </c>
+      <c r="E137" t="s">
+        <v>298</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H137" t="s">
+        <v>744</v>
+      </c>
+      <c r="I137" t="s">
+        <v>219</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K137" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D138" t="s">
+        <v>297</v>
+      </c>
+      <c r="E138" t="s">
+        <v>289</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H138" t="s">
+        <v>747</v>
+      </c>
+      <c r="I138" t="s">
+        <v>231</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K138" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D139" t="s">
+        <v>288</v>
+      </c>
+      <c r="E139" t="s">
+        <v>298</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H139" t="s">
+        <v>750</v>
+      </c>
+      <c r="I139" t="s">
+        <v>219</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K139" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D140" t="s">
+        <v>293</v>
+      </c>
+      <c r="E140" t="s">
+        <v>307</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H140" t="s">
+        <v>753</v>
+      </c>
+      <c r="I140" t="s">
+        <v>231</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K140" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D141" t="s">
+        <v>288</v>
+      </c>
+      <c r="E141" t="s">
+        <v>307</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H141" t="s">
+        <v>756</v>
+      </c>
+      <c r="I141" t="s">
+        <v>231</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K141" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D142" t="s">
+        <v>293</v>
+      </c>
+      <c r="E142" t="s">
+        <v>298</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H142" t="s">
+        <v>760</v>
+      </c>
+      <c r="I142" t="s">
+        <v>219</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K142" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D143" t="s">
+        <v>293</v>
+      </c>
+      <c r="E143" t="s">
+        <v>289</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H143" t="s">
+        <v>764</v>
+      </c>
+      <c r="I143" t="s">
+        <v>231</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K143" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D144" t="s">
+        <v>297</v>
+      </c>
+      <c r="E144" t="s">
+        <v>298</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H144" t="s">
+        <v>732</v>
+      </c>
+      <c r="I144" t="s">
+        <v>219</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K144" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D145" t="s">
+        <v>288</v>
+      </c>
+      <c r="E145" t="s">
+        <v>289</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H145" t="s">
+        <v>735</v>
+      </c>
+      <c r="I145" t="s">
+        <v>219</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K145" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D146" t="s">
+        <v>293</v>
+      </c>
+      <c r="E146" t="s">
+        <v>289</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H146" t="s">
+        <v>738</v>
+      </c>
+      <c r="I146" t="s">
+        <v>219</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K146" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D147" t="s">
+        <v>297</v>
+      </c>
+      <c r="E147" t="s">
+        <v>307</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H147" t="s">
+        <v>741</v>
+      </c>
+      <c r="I147" t="s">
+        <v>219</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K147" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink location="DG000009TCI1/a/dl0000000L9J/pFTU6SuDKUb8UX5jxm7R6koWLH0SlwFaO.3Jr9NOHGk" r:id="rId1" ref="C28" xr:uid="{D0DD3569-A0EA-4BD8-B4B1-67B318B47677}"/>
